--- a/data/cylinder_radius_10.0/peak_shift/eal_5_restricted_range/offcenter_0/new_bg/0003/model.xlsx
+++ b/data/cylinder_radius_10.0/peak_shift/eal_5_restricted_range/offcenter_0/new_bg/0003/model.xlsx
@@ -537,7 +537,7 @@
         <v>5000.0</v>
       </c>
       <c r="M2">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N2">
         <v>0.002</v>
@@ -593,7 +593,7 @@
         <v>5000.0</v>
       </c>
       <c r="M3">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N3">
         <v>0.002</v>
@@ -649,7 +649,7 @@
         <v>5000.0</v>
       </c>
       <c r="M4">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N4">
         <v>0.002</v>
@@ -705,7 +705,7 @@
         <v>5000.0</v>
       </c>
       <c r="M5">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N5">
         <v>0.002</v>
@@ -761,7 +761,7 @@
         <v>5000.0</v>
       </c>
       <c r="M6">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N6">
         <v>0.002</v>
@@ -817,7 +817,7 @@
         <v>5000.0</v>
       </c>
       <c r="M7">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N7">
         <v>0.002</v>
@@ -873,7 +873,7 @@
         <v>5000.0</v>
       </c>
       <c r="M8">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N8">
         <v>0.002</v>
@@ -929,7 +929,7 @@
         <v>5000.0</v>
       </c>
       <c r="M9">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N9">
         <v>0.002</v>
@@ -985,7 +985,7 @@
         <v>5000.0</v>
       </c>
       <c r="M10">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N10">
         <v>0.002</v>
@@ -1041,7 +1041,7 @@
         <v>5000.0</v>
       </c>
       <c r="M11">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N11">
         <v>0.002</v>
@@ -1097,7 +1097,7 @@
         <v>5000.0</v>
       </c>
       <c r="M12">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N12">
         <v>0.002</v>
@@ -1153,7 +1153,7 @@
         <v>5000.0</v>
       </c>
       <c r="M13">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N13">
         <v>0.002</v>
@@ -1209,7 +1209,7 @@
         <v>5000.0</v>
       </c>
       <c r="M14">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N14">
         <v>0.002</v>
@@ -1265,7 +1265,7 @@
         <v>5000.0</v>
       </c>
       <c r="M15">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N15">
         <v>0.002</v>
@@ -1321,7 +1321,7 @@
         <v>5000.0</v>
       </c>
       <c r="M16">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N16">
         <v>0.002</v>
@@ -1377,7 +1377,7 @@
         <v>5000.0</v>
       </c>
       <c r="M17">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N17">
         <v>0.002</v>
@@ -1433,7 +1433,7 @@
         <v>5000.0</v>
       </c>
       <c r="M18">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N18">
         <v>0.002</v>
@@ -1489,7 +1489,7 @@
         <v>5000.0</v>
       </c>
       <c r="M19">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N19">
         <v>0.002</v>
@@ -1545,7 +1545,7 @@
         <v>5000.0</v>
       </c>
       <c r="M20">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N20">
         <v>0.002</v>
@@ -1601,7 +1601,7 @@
         <v>5000.0</v>
       </c>
       <c r="M21">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N21">
         <v>0.002</v>
@@ -1657,7 +1657,7 @@
         <v>5000.0</v>
       </c>
       <c r="M22">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N22">
         <v>0.002</v>
@@ -1713,7 +1713,7 @@
         <v>5000.0</v>
       </c>
       <c r="M23">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N23">
         <v>0.002</v>
@@ -1769,7 +1769,7 @@
         <v>5000.0</v>
       </c>
       <c r="M24">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N24">
         <v>0.002</v>
@@ -1825,7 +1825,7 @@
         <v>5000.0</v>
       </c>
       <c r="M25">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N25">
         <v>0.002</v>
@@ -1881,7 +1881,7 @@
         <v>5000.0</v>
       </c>
       <c r="M26">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N26">
         <v>0.002</v>
@@ -1937,7 +1937,7 @@
         <v>5000.0</v>
       </c>
       <c r="M27">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N27">
         <v>0.002</v>
@@ -1993,7 +1993,7 @@
         <v>5000.0</v>
       </c>
       <c r="M28">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N28">
         <v>0.002</v>
@@ -2049,7 +2049,7 @@
         <v>5000.0</v>
       </c>
       <c r="M29">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N29">
         <v>0.002</v>
@@ -2105,7 +2105,7 @@
         <v>5000.0</v>
       </c>
       <c r="M30">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N30">
         <v>0.002</v>
@@ -2161,7 +2161,7 @@
         <v>5000.0</v>
       </c>
       <c r="M31">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N31">
         <v>0.002</v>
@@ -2217,7 +2217,7 @@
         <v>5000.0</v>
       </c>
       <c r="M32">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N32">
         <v>0.002</v>
@@ -2273,7 +2273,7 @@
         <v>5000.0</v>
       </c>
       <c r="M33">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N33">
         <v>0.002</v>
@@ -2329,7 +2329,7 @@
         <v>5000.0</v>
       </c>
       <c r="M34">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N34">
         <v>0.002</v>
@@ -2385,7 +2385,7 @@
         <v>5000.0</v>
       </c>
       <c r="M35">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N35">
         <v>0.002</v>
@@ -2441,7 +2441,7 @@
         <v>5000.0</v>
       </c>
       <c r="M36">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N36">
         <v>0.002</v>
@@ -2497,7 +2497,7 @@
         <v>5000.0</v>
       </c>
       <c r="M37">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N37">
         <v>0.002</v>
@@ -2553,7 +2553,7 @@
         <v>5000.0</v>
       </c>
       <c r="M38">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N38">
         <v>0.002</v>
@@ -2609,7 +2609,7 @@
         <v>5000.0</v>
       </c>
       <c r="M39">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N39">
         <v>0.002</v>
@@ -2665,7 +2665,7 @@
         <v>5000.0</v>
       </c>
       <c r="M40">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N40">
         <v>0.002</v>
@@ -2721,7 +2721,7 @@
         <v>5000.0</v>
       </c>
       <c r="M41">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N41">
         <v>0.002</v>
@@ -2777,7 +2777,7 @@
         <v>5000.0</v>
       </c>
       <c r="M42">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N42">
         <v>0.002</v>
@@ -2833,7 +2833,7 @@
         <v>5000.0</v>
       </c>
       <c r="M43">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N43">
         <v>0.002</v>
@@ -2889,7 +2889,7 @@
         <v>5000.0</v>
       </c>
       <c r="M44">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N44">
         <v>0.002</v>
@@ -2945,7 +2945,7 @@
         <v>5000.0</v>
       </c>
       <c r="M45">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N45">
         <v>0.002</v>
@@ -3001,7 +3001,7 @@
         <v>5000.0</v>
       </c>
       <c r="M46">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N46">
         <v>0.002</v>
@@ -3057,7 +3057,7 @@
         <v>5000.0</v>
       </c>
       <c r="M47">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N47">
         <v>0.002</v>
@@ -3113,7 +3113,7 @@
         <v>5000.0</v>
       </c>
       <c r="M48">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N48">
         <v>0.002</v>
@@ -3169,7 +3169,7 @@
         <v>5000.0</v>
       </c>
       <c r="M49">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N49">
         <v>0.002</v>
@@ -3225,7 +3225,7 @@
         <v>5000.0</v>
       </c>
       <c r="M50">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N50">
         <v>0.002</v>
@@ -3281,7 +3281,7 @@
         <v>5000.0</v>
       </c>
       <c r="M51">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N51">
         <v>0.002</v>
@@ -3337,7 +3337,7 @@
         <v>5000.0</v>
       </c>
       <c r="M52">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N52">
         <v>0.002</v>
@@ -3393,7 +3393,7 @@
         <v>5000.0</v>
       </c>
       <c r="M53">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N53">
         <v>0.002</v>
@@ -3449,7 +3449,7 @@
         <v>5000.0</v>
       </c>
       <c r="M54">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N54">
         <v>0.002</v>
@@ -3505,7 +3505,7 @@
         <v>5000.0</v>
       </c>
       <c r="M55">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N55">
         <v>0.002</v>
@@ -3561,7 +3561,7 @@
         <v>5000.0</v>
       </c>
       <c r="M56">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N56">
         <v>0.002</v>
@@ -3617,7 +3617,7 @@
         <v>5000.0</v>
       </c>
       <c r="M57">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N57">
         <v>0.002</v>
@@ -3673,7 +3673,7 @@
         <v>5000.0</v>
       </c>
       <c r="M58">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N58">
         <v>0.002</v>
@@ -3729,7 +3729,7 @@
         <v>5000.0</v>
       </c>
       <c r="M59">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N59">
         <v>0.002</v>
@@ -3785,7 +3785,7 @@
         <v>5000.0</v>
       </c>
       <c r="M60">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N60">
         <v>0.002</v>
@@ -3841,7 +3841,7 @@
         <v>5000.0</v>
       </c>
       <c r="M61">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N61">
         <v>0.002</v>
@@ -3897,7 +3897,7 @@
         <v>5000.0</v>
       </c>
       <c r="M62">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N62">
         <v>0.002</v>
@@ -3953,7 +3953,7 @@
         <v>5000.0</v>
       </c>
       <c r="M63">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N63">
         <v>0.002</v>
@@ -4009,7 +4009,7 @@
         <v>5000.0</v>
       </c>
       <c r="M64">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N64">
         <v>0.002</v>
@@ -4065,7 +4065,7 @@
         <v>5000.0</v>
       </c>
       <c r="M65">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N65">
         <v>0.002</v>
@@ -4121,7 +4121,7 @@
         <v>5000.0</v>
       </c>
       <c r="M66">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N66">
         <v>0.002</v>
@@ -4177,7 +4177,7 @@
         <v>5000.0</v>
       </c>
       <c r="M67">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N67">
         <v>0.002</v>
@@ -4233,7 +4233,7 @@
         <v>5000.0</v>
       </c>
       <c r="M68">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N68">
         <v>0.002</v>
@@ -4289,7 +4289,7 @@
         <v>5000.0</v>
       </c>
       <c r="M69">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N69">
         <v>0.002</v>
@@ -4345,7 +4345,7 @@
         <v>5000.0</v>
       </c>
       <c r="M70">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N70">
         <v>0.002</v>
@@ -4401,7 +4401,7 @@
         <v>5000.0</v>
       </c>
       <c r="M71">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N71">
         <v>0.002</v>
@@ -4457,7 +4457,7 @@
         <v>5000.0</v>
       </c>
       <c r="M72">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N72">
         <v>0.002</v>
@@ -4513,7 +4513,7 @@
         <v>5000.0</v>
       </c>
       <c r="M73">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N73">
         <v>0.002</v>
@@ -4569,7 +4569,7 @@
         <v>5000.0</v>
       </c>
       <c r="M74">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N74">
         <v>0.002</v>
@@ -4625,7 +4625,7 @@
         <v>5000.0</v>
       </c>
       <c r="M75">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N75">
         <v>0.002</v>
@@ -4681,7 +4681,7 @@
         <v>5000.0</v>
       </c>
       <c r="M76">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N76">
         <v>0.002</v>
@@ -4737,7 +4737,7 @@
         <v>5000.0</v>
       </c>
       <c r="M77">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N77">
         <v>0.002</v>
@@ -4793,7 +4793,7 @@
         <v>5000.0</v>
       </c>
       <c r="M78">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N78">
         <v>0.002</v>
@@ -4849,7 +4849,7 @@
         <v>5000.0</v>
       </c>
       <c r="M79">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N79">
         <v>0.002</v>
@@ -4905,7 +4905,7 @@
         <v>5000.0</v>
       </c>
       <c r="M80">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N80">
         <v>0.002</v>
@@ -4961,7 +4961,7 @@
         <v>5000.0</v>
       </c>
       <c r="M81">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N81">
         <v>0.002</v>
@@ -5017,7 +5017,7 @@
         <v>5000.0</v>
       </c>
       <c r="M82">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N82">
         <v>0.002</v>
@@ -5073,7 +5073,7 @@
         <v>5000.0</v>
       </c>
       <c r="M83">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N83">
         <v>0.002</v>
@@ -5129,7 +5129,7 @@
         <v>5000.0</v>
       </c>
       <c r="M84">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N84">
         <v>0.002</v>
@@ -5185,7 +5185,7 @@
         <v>5000.0</v>
       </c>
       <c r="M85">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N85">
         <v>0.002</v>
@@ -5241,7 +5241,7 @@
         <v>5000.0</v>
       </c>
       <c r="M86">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N86">
         <v>0.002</v>
@@ -5297,7 +5297,7 @@
         <v>5000.0</v>
       </c>
       <c r="M87">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N87">
         <v>0.002</v>
@@ -5353,7 +5353,7 @@
         <v>5000.0</v>
       </c>
       <c r="M88">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N88">
         <v>0.002</v>
@@ -5409,7 +5409,7 @@
         <v>5000.0</v>
       </c>
       <c r="M89">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N89">
         <v>0.002</v>
@@ -5465,7 +5465,7 @@
         <v>5000.0</v>
       </c>
       <c r="M90">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N90">
         <v>0.002</v>
@@ -5521,7 +5521,7 @@
         <v>5000.0</v>
       </c>
       <c r="M91">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N91">
         <v>0.002</v>
@@ -5577,7 +5577,7 @@
         <v>5000.0</v>
       </c>
       <c r="M92">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N92">
         <v>0.002</v>
@@ -5633,7 +5633,7 @@
         <v>5000.0</v>
       </c>
       <c r="M93">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N93">
         <v>0.002</v>
@@ -5689,7 +5689,7 @@
         <v>5000.0</v>
       </c>
       <c r="M94">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N94">
         <v>0.002</v>
@@ -5745,7 +5745,7 @@
         <v>5000.0</v>
       </c>
       <c r="M95">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N95">
         <v>0.002</v>
@@ -5801,7 +5801,7 @@
         <v>5000.0</v>
       </c>
       <c r="M96">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N96">
         <v>0.002</v>
@@ -5857,7 +5857,7 @@
         <v>5000.0</v>
       </c>
       <c r="M97">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N97">
         <v>0.002</v>
@@ -5913,7 +5913,7 @@
         <v>5000.0</v>
       </c>
       <c r="M98">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N98">
         <v>0.002</v>
@@ -5969,7 +5969,7 @@
         <v>5000.0</v>
       </c>
       <c r="M99">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N99">
         <v>0.002</v>
@@ -6025,7 +6025,7 @@
         <v>5000.0</v>
       </c>
       <c r="M100">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N100">
         <v>0.002</v>
@@ -6081,7 +6081,7 @@
         <v>5000.0</v>
       </c>
       <c r="M101">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N101">
         <v>0.002</v>
@@ -6137,7 +6137,7 @@
         <v>5000.0</v>
       </c>
       <c r="M102">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N102">
         <v>0.002</v>
@@ -6193,7 +6193,7 @@
         <v>5000.0</v>
       </c>
       <c r="M103">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N103">
         <v>0.002</v>
@@ -6249,7 +6249,7 @@
         <v>5000.0</v>
       </c>
       <c r="M104">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N104">
         <v>0.002</v>
@@ -6305,7 +6305,7 @@
         <v>5000.0</v>
       </c>
       <c r="M105">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N105">
         <v>0.002</v>
@@ -6361,7 +6361,7 @@
         <v>5000.0</v>
       </c>
       <c r="M106">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N106">
         <v>0.002</v>
@@ -6417,7 +6417,7 @@
         <v>5000.0</v>
       </c>
       <c r="M107">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N107">
         <v>0.002</v>
@@ -6473,7 +6473,7 @@
         <v>5000.0</v>
       </c>
       <c r="M108">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N108">
         <v>0.002</v>
@@ -6529,7 +6529,7 @@
         <v>5000.0</v>
       </c>
       <c r="M109">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N109">
         <v>0.002</v>
@@ -6585,7 +6585,7 @@
         <v>5000.0</v>
       </c>
       <c r="M110">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N110">
         <v>0.002</v>
@@ -6641,7 +6641,7 @@
         <v>5000.0</v>
       </c>
       <c r="M111">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N111">
         <v>0.002</v>
@@ -6697,7 +6697,7 @@
         <v>5000.0</v>
       </c>
       <c r="M112">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N112">
         <v>0.002</v>
@@ -6753,7 +6753,7 @@
         <v>5000.0</v>
       </c>
       <c r="M113">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N113">
         <v>0.002</v>
@@ -6809,7 +6809,7 @@
         <v>5000.0</v>
       </c>
       <c r="M114">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N114">
         <v>0.002</v>
@@ -6865,7 +6865,7 @@
         <v>5000.0</v>
       </c>
       <c r="M115">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N115">
         <v>0.002</v>
@@ -6921,7 +6921,7 @@
         <v>5000.0</v>
       </c>
       <c r="M116">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N116">
         <v>0.002</v>
@@ -6977,7 +6977,7 @@
         <v>5000.0</v>
       </c>
       <c r="M117">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N117">
         <v>0.002</v>
@@ -7033,7 +7033,7 @@
         <v>5000.0</v>
       </c>
       <c r="M118">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N118">
         <v>0.002</v>
@@ -7089,7 +7089,7 @@
         <v>5000.0</v>
       </c>
       <c r="M119">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N119">
         <v>0.002</v>
@@ -7145,7 +7145,7 @@
         <v>5000.0</v>
       </c>
       <c r="M120">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N120">
         <v>0.002</v>
@@ -7201,7 +7201,7 @@
         <v>5000.0</v>
       </c>
       <c r="M121">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N121">
         <v>0.002</v>
@@ -7257,7 +7257,7 @@
         <v>5000.0</v>
       </c>
       <c r="M122">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N122">
         <v>0.002</v>
@@ -7313,7 +7313,7 @@
         <v>5000.0</v>
       </c>
       <c r="M123">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N123">
         <v>0.002</v>
@@ -7369,7 +7369,7 @@
         <v>5000.0</v>
       </c>
       <c r="M124">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N124">
         <v>0.002</v>
@@ -7425,7 +7425,7 @@
         <v>5000.0</v>
       </c>
       <c r="M125">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N125">
         <v>0.002</v>
@@ -7481,7 +7481,7 @@
         <v>5000.0</v>
       </c>
       <c r="M126">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N126">
         <v>0.002</v>
@@ -7537,7 +7537,7 @@
         <v>5000.0</v>
       </c>
       <c r="M127">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N127">
         <v>0.002</v>
@@ -7593,7 +7593,7 @@
         <v>5000.0</v>
       </c>
       <c r="M128">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N128">
         <v>0.002</v>
@@ -7649,7 +7649,7 @@
         <v>5000.0</v>
       </c>
       <c r="M129">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N129">
         <v>0.002</v>
@@ -7705,7 +7705,7 @@
         <v>5000.0</v>
       </c>
       <c r="M130">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N130">
         <v>0.002</v>
@@ -7761,7 +7761,7 @@
         <v>5000.0</v>
       </c>
       <c r="M131">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N131">
         <v>0.002</v>
@@ -7817,7 +7817,7 @@
         <v>5000.0</v>
       </c>
       <c r="M132">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N132">
         <v>0.002</v>
@@ -7873,7 +7873,7 @@
         <v>5000.0</v>
       </c>
       <c r="M133">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N133">
         <v>0.002</v>
@@ -7929,7 +7929,7 @@
         <v>5000.0</v>
       </c>
       <c r="M134">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N134">
         <v>0.002</v>
@@ -7985,7 +7985,7 @@
         <v>5000.0</v>
       </c>
       <c r="M135">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N135">
         <v>0.002</v>
@@ -8041,7 +8041,7 @@
         <v>5000.0</v>
       </c>
       <c r="M136">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N136">
         <v>0.002</v>
@@ -8097,7 +8097,7 @@
         <v>5000.0</v>
       </c>
       <c r="M137">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N137">
         <v>0.002</v>
@@ -8153,7 +8153,7 @@
         <v>5000.0</v>
       </c>
       <c r="M138">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N138">
         <v>0.002</v>
@@ -8209,7 +8209,7 @@
         <v>5000.0</v>
       </c>
       <c r="M139">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N139">
         <v>0.002</v>
@@ -8265,7 +8265,7 @@
         <v>5000.0</v>
       </c>
       <c r="M140">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N140">
         <v>0.002</v>
@@ -8321,7 +8321,7 @@
         <v>5000.0</v>
       </c>
       <c r="M141">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N141">
         <v>0.002</v>
@@ -8377,7 +8377,7 @@
         <v>5000.0</v>
       </c>
       <c r="M142">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N142">
         <v>0.002</v>
@@ -8433,7 +8433,7 @@
         <v>5000.0</v>
       </c>
       <c r="M143">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N143">
         <v>0.002</v>
@@ -8489,7 +8489,7 @@
         <v>5000.0</v>
       </c>
       <c r="M144">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N144">
         <v>0.002</v>
@@ -8545,7 +8545,7 @@
         <v>5000.0</v>
       </c>
       <c r="M145">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N145">
         <v>0.002</v>
@@ -8601,7 +8601,7 @@
         <v>5000.0</v>
       </c>
       <c r="M146">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N146">
         <v>0.002</v>
@@ -8657,7 +8657,7 @@
         <v>5000.0</v>
       </c>
       <c r="M147">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N147">
         <v>0.002</v>
@@ -8713,7 +8713,7 @@
         <v>5000.0</v>
       </c>
       <c r="M148">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N148">
         <v>0.002</v>
@@ -8769,7 +8769,7 @@
         <v>5000.0</v>
       </c>
       <c r="M149">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N149">
         <v>0.002</v>
@@ -8825,7 +8825,7 @@
         <v>5000.0</v>
       </c>
       <c r="M150">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N150">
         <v>0.002</v>
@@ -8881,7 +8881,7 @@
         <v>5000.0</v>
       </c>
       <c r="M151">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N151">
         <v>0.002</v>
@@ -8937,7 +8937,7 @@
         <v>5000.0</v>
       </c>
       <c r="M152">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N152">
         <v>0.002</v>
@@ -8993,7 +8993,7 @@
         <v>5000.0</v>
       </c>
       <c r="M153">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N153">
         <v>0.002</v>
@@ -9049,7 +9049,7 @@
         <v>5000.0</v>
       </c>
       <c r="M154">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N154">
         <v>0.002</v>
@@ -9105,7 +9105,7 @@
         <v>5000.0</v>
       </c>
       <c r="M155">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N155">
         <v>0.002</v>
@@ -9161,7 +9161,7 @@
         <v>5000.0</v>
       </c>
       <c r="M156">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N156">
         <v>0.002</v>
@@ -9217,7 +9217,7 @@
         <v>5000.0</v>
       </c>
       <c r="M157">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N157">
         <v>0.002</v>
@@ -9273,7 +9273,7 @@
         <v>5000.0</v>
       </c>
       <c r="M158">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N158">
         <v>0.002</v>
@@ -9329,7 +9329,7 @@
         <v>5000.0</v>
       </c>
       <c r="M159">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N159">
         <v>0.002</v>
@@ -9385,7 +9385,7 @@
         <v>5000.0</v>
       </c>
       <c r="M160">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N160">
         <v>0.002</v>
@@ -9441,7 +9441,7 @@
         <v>5000.0</v>
       </c>
       <c r="M161">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N161">
         <v>0.002</v>
@@ -9497,7 +9497,7 @@
         <v>5000.0</v>
       </c>
       <c r="M162">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N162">
         <v>0.002</v>
@@ -9553,7 +9553,7 @@
         <v>5000.0</v>
       </c>
       <c r="M163">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N163">
         <v>0.002</v>
@@ -9609,7 +9609,7 @@
         <v>5000.0</v>
       </c>
       <c r="M164">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N164">
         <v>0.002</v>
@@ -9665,7 +9665,7 @@
         <v>5000.0</v>
       </c>
       <c r="M165">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N165">
         <v>0.002</v>
@@ -9721,7 +9721,7 @@
         <v>5000.0</v>
       </c>
       <c r="M166">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N166">
         <v>0.002</v>
@@ -9777,7 +9777,7 @@
         <v>5000.0</v>
       </c>
       <c r="M167">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N167">
         <v>0.002</v>
@@ -9833,7 +9833,7 @@
         <v>5000.0</v>
       </c>
       <c r="M168">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N168">
         <v>0.002</v>
@@ -9889,7 +9889,7 @@
         <v>5000.0</v>
       </c>
       <c r="M169">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N169">
         <v>0.002</v>
@@ -9945,7 +9945,7 @@
         <v>5000.0</v>
       </c>
       <c r="M170">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N170">
         <v>0.002</v>
@@ -10001,7 +10001,7 @@
         <v>5000.0</v>
       </c>
       <c r="M171">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N171">
         <v>0.002</v>
@@ -10057,7 +10057,7 @@
         <v>5000.0</v>
       </c>
       <c r="M172">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N172">
         <v>0.002</v>
@@ -10113,7 +10113,7 @@
         <v>5000.0</v>
       </c>
       <c r="M173">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N173">
         <v>0.002</v>
@@ -10169,7 +10169,7 @@
         <v>5000.0</v>
       </c>
       <c r="M174">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N174">
         <v>0.002</v>
@@ -10225,7 +10225,7 @@
         <v>5000.0</v>
       </c>
       <c r="M175">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N175">
         <v>0.002</v>
@@ -10281,7 +10281,7 @@
         <v>5000.0</v>
       </c>
       <c r="M176">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N176">
         <v>0.002</v>
@@ -10337,7 +10337,7 @@
         <v>5000.0</v>
       </c>
       <c r="M177">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N177">
         <v>0.002</v>
@@ -10393,7 +10393,7 @@
         <v>5000.0</v>
       </c>
       <c r="M178">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N178">
         <v>0.002</v>
@@ -10449,7 +10449,7 @@
         <v>5000.0</v>
       </c>
       <c r="M179">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N179">
         <v>0.002</v>
@@ -10505,7 +10505,7 @@
         <v>5000.0</v>
       </c>
       <c r="M180">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N180">
         <v>0.002</v>
@@ -10561,7 +10561,7 @@
         <v>5000.0</v>
       </c>
       <c r="M181">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N181">
         <v>0.002</v>
@@ -10617,7 +10617,7 @@
         <v>5000.0</v>
       </c>
       <c r="M182">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N182">
         <v>0.002</v>
@@ -10673,7 +10673,7 @@
         <v>5000.0</v>
       </c>
       <c r="M183">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N183">
         <v>0.002</v>
@@ -10729,7 +10729,7 @@
         <v>5000.0</v>
       </c>
       <c r="M184">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N184">
         <v>0.002</v>
@@ -10785,7 +10785,7 @@
         <v>5000.0</v>
       </c>
       <c r="M185">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N185">
         <v>0.002</v>
@@ -10841,7 +10841,7 @@
         <v>5000.0</v>
       </c>
       <c r="M186">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N186">
         <v>0.002</v>
@@ -10897,7 +10897,7 @@
         <v>5000.0</v>
       </c>
       <c r="M187">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N187">
         <v>0.002</v>
@@ -10953,7 +10953,7 @@
         <v>5000.0</v>
       </c>
       <c r="M188">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N188">
         <v>0.002</v>
@@ -11009,7 +11009,7 @@
         <v>5000.0</v>
       </c>
       <c r="M189">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N189">
         <v>0.002</v>
@@ -11065,7 +11065,7 @@
         <v>5000.0</v>
       </c>
       <c r="M190">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N190">
         <v>0.002</v>
@@ -11121,7 +11121,7 @@
         <v>5000.0</v>
       </c>
       <c r="M191">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N191">
         <v>0.002</v>
@@ -11177,7 +11177,7 @@
         <v>5000.0</v>
       </c>
       <c r="M192">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N192">
         <v>0.002</v>
@@ -11233,7 +11233,7 @@
         <v>5000.0</v>
       </c>
       <c r="M193">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N193">
         <v>0.002</v>
@@ -11289,7 +11289,7 @@
         <v>5000.0</v>
       </c>
       <c r="M194">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N194">
         <v>0.002</v>
@@ -11345,7 +11345,7 @@
         <v>5000.0</v>
       </c>
       <c r="M195">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N195">
         <v>0.002</v>
@@ -11401,7 +11401,7 @@
         <v>5000.0</v>
       </c>
       <c r="M196">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N196">
         <v>0.002</v>
@@ -11457,7 +11457,7 @@
         <v>5000.0</v>
       </c>
       <c r="M197">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N197">
         <v>0.002</v>
@@ -11513,7 +11513,7 @@
         <v>5000.0</v>
       </c>
       <c r="M198">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N198">
         <v>0.002</v>
@@ -11569,7 +11569,7 @@
         <v>5000.0</v>
       </c>
       <c r="M199">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N199">
         <v>0.002</v>
@@ -11625,7 +11625,7 @@
         <v>5000.0</v>
       </c>
       <c r="M200">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N200">
         <v>0.002</v>
@@ -11681,7 +11681,7 @@
         <v>5000.0</v>
       </c>
       <c r="M201">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N201">
         <v>0.002</v>
@@ -11737,7 +11737,7 @@
         <v>5000.0</v>
       </c>
       <c r="M202">
-        <v>2.5132631088607345e-8</v>
+        <v>2.513263108860734e-8</v>
       </c>
       <c r="N202">
         <v>0.002</v>
@@ -23187,7 +23187,7 @@
         <v>5000.0</v>
       </c>
       <c r="M2">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N2">
         <v>0.002</v>
@@ -23243,7 +23243,7 @@
         <v>5000.0</v>
       </c>
       <c r="M3">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N3">
         <v>0.002</v>
@@ -23299,7 +23299,7 @@
         <v>5000.0</v>
       </c>
       <c r="M4">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N4">
         <v>0.002</v>
@@ -23355,7 +23355,7 @@
         <v>5000.0</v>
       </c>
       <c r="M5">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N5">
         <v>0.002</v>
@@ -23411,7 +23411,7 @@
         <v>5000.0</v>
       </c>
       <c r="M6">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N6">
         <v>0.002</v>
@@ -23467,7 +23467,7 @@
         <v>5000.0</v>
       </c>
       <c r="M7">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N7">
         <v>0.002</v>
@@ -23523,7 +23523,7 @@
         <v>5000.0</v>
       </c>
       <c r="M8">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N8">
         <v>0.002</v>
@@ -23579,7 +23579,7 @@
         <v>5000.0</v>
       </c>
       <c r="M9">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N9">
         <v>0.002</v>
@@ -23635,7 +23635,7 @@
         <v>5000.0</v>
       </c>
       <c r="M10">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N10">
         <v>0.002</v>
@@ -23691,7 +23691,7 @@
         <v>5000.0</v>
       </c>
       <c r="M11">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N11">
         <v>0.002</v>
@@ -23747,7 +23747,7 @@
         <v>5000.0</v>
       </c>
       <c r="M12">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N12">
         <v>0.002</v>
@@ -23803,7 +23803,7 @@
         <v>5000.0</v>
       </c>
       <c r="M13">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N13">
         <v>0.002</v>
@@ -23859,7 +23859,7 @@
         <v>5000.0</v>
       </c>
       <c r="M14">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N14">
         <v>0.002</v>
@@ -23915,7 +23915,7 @@
         <v>5000.0</v>
       </c>
       <c r="M15">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N15">
         <v>0.002</v>
@@ -23971,7 +23971,7 @@
         <v>5000.0</v>
       </c>
       <c r="M16">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N16">
         <v>0.002</v>
@@ -24027,7 +24027,7 @@
         <v>5000.0</v>
       </c>
       <c r="M17">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N17">
         <v>0.002</v>
@@ -24083,7 +24083,7 @@
         <v>5000.0</v>
       </c>
       <c r="M18">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N18">
         <v>0.002</v>
@@ -24139,7 +24139,7 @@
         <v>5000.0</v>
       </c>
       <c r="M19">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N19">
         <v>0.002</v>
@@ -24195,7 +24195,7 @@
         <v>5000.0</v>
       </c>
       <c r="M20">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N20">
         <v>0.002</v>
@@ -24251,7 +24251,7 @@
         <v>5000.0</v>
       </c>
       <c r="M21">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N21">
         <v>0.002</v>
@@ -24307,7 +24307,7 @@
         <v>5000.0</v>
       </c>
       <c r="M22">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N22">
         <v>0.002</v>
@@ -24363,7 +24363,7 @@
         <v>5000.0</v>
       </c>
       <c r="M23">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N23">
         <v>0.002</v>
@@ -24419,7 +24419,7 @@
         <v>5000.0</v>
       </c>
       <c r="M24">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N24">
         <v>0.002</v>
@@ -24475,7 +24475,7 @@
         <v>5000.0</v>
       </c>
       <c r="M25">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N25">
         <v>0.002</v>
@@ -24531,7 +24531,7 @@
         <v>5000.0</v>
       </c>
       <c r="M26">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N26">
         <v>0.002</v>
@@ -24587,7 +24587,7 @@
         <v>5000.0</v>
       </c>
       <c r="M27">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N27">
         <v>0.002</v>
@@ -24643,7 +24643,7 @@
         <v>5000.0</v>
       </c>
       <c r="M28">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N28">
         <v>0.002</v>
@@ -24699,7 +24699,7 @@
         <v>5000.0</v>
       </c>
       <c r="M29">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N29">
         <v>0.002</v>
@@ -24755,7 +24755,7 @@
         <v>5000.0</v>
       </c>
       <c r="M30">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N30">
         <v>0.002</v>
@@ -24811,7 +24811,7 @@
         <v>5000.0</v>
       </c>
       <c r="M31">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N31">
         <v>0.002</v>
@@ -24867,7 +24867,7 @@
         <v>5000.0</v>
       </c>
       <c r="M32">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N32">
         <v>0.002</v>
@@ -24923,7 +24923,7 @@
         <v>5000.0</v>
       </c>
       <c r="M33">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N33">
         <v>0.002</v>
@@ -24979,7 +24979,7 @@
         <v>5000.0</v>
       </c>
       <c r="M34">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N34">
         <v>0.002</v>
@@ -25035,7 +25035,7 @@
         <v>5000.0</v>
       </c>
       <c r="M35">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N35">
         <v>0.002</v>
@@ -25091,7 +25091,7 @@
         <v>5000.0</v>
       </c>
       <c r="M36">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N36">
         <v>0.002</v>
@@ -25147,7 +25147,7 @@
         <v>5000.0</v>
       </c>
       <c r="M37">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N37">
         <v>0.002</v>
@@ -25203,7 +25203,7 @@
         <v>5000.0</v>
       </c>
       <c r="M38">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N38">
         <v>0.002</v>
@@ -25259,7 +25259,7 @@
         <v>5000.0</v>
       </c>
       <c r="M39">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N39">
         <v>0.002</v>
@@ -25315,7 +25315,7 @@
         <v>5000.0</v>
       </c>
       <c r="M40">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N40">
         <v>0.002</v>
@@ -25371,7 +25371,7 @@
         <v>5000.0</v>
       </c>
       <c r="M41">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N41">
         <v>0.002</v>
@@ -25427,7 +25427,7 @@
         <v>5000.0</v>
       </c>
       <c r="M42">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N42">
         <v>0.002</v>
@@ -25483,7 +25483,7 @@
         <v>5000.0</v>
       </c>
       <c r="M43">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N43">
         <v>0.002</v>
@@ -25539,7 +25539,7 @@
         <v>5000.0</v>
       </c>
       <c r="M44">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N44">
         <v>0.002</v>
@@ -25595,7 +25595,7 @@
         <v>5000.0</v>
       </c>
       <c r="M45">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N45">
         <v>0.002</v>
@@ -25651,7 +25651,7 @@
         <v>5000.0</v>
       </c>
       <c r="M46">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N46">
         <v>0.002</v>
@@ -25707,7 +25707,7 @@
         <v>5000.0</v>
       </c>
       <c r="M47">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N47">
         <v>0.002</v>
@@ -25763,7 +25763,7 @@
         <v>5000.0</v>
       </c>
       <c r="M48">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N48">
         <v>0.002</v>
@@ -25819,7 +25819,7 @@
         <v>5000.0</v>
       </c>
       <c r="M49">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N49">
         <v>0.002</v>
@@ -25875,7 +25875,7 @@
         <v>5000.0</v>
       </c>
       <c r="M50">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N50">
         <v>0.002</v>
@@ -25931,7 +25931,7 @@
         <v>5000.0</v>
       </c>
       <c r="M51">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N51">
         <v>0.002</v>
@@ -25987,7 +25987,7 @@
         <v>5000.0</v>
       </c>
       <c r="M52">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N52">
         <v>0.002</v>
@@ -26043,7 +26043,7 @@
         <v>5000.0</v>
       </c>
       <c r="M53">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N53">
         <v>0.002</v>
@@ -26099,7 +26099,7 @@
         <v>5000.0</v>
       </c>
       <c r="M54">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N54">
         <v>0.002</v>
@@ -26155,7 +26155,7 @@
         <v>5000.0</v>
       </c>
       <c r="M55">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N55">
         <v>0.002</v>
@@ -26211,7 +26211,7 @@
         <v>5000.0</v>
       </c>
       <c r="M56">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N56">
         <v>0.002</v>
@@ -26267,7 +26267,7 @@
         <v>5000.0</v>
       </c>
       <c r="M57">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N57">
         <v>0.002</v>
@@ -26323,7 +26323,7 @@
         <v>5000.0</v>
       </c>
       <c r="M58">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N58">
         <v>0.002</v>
@@ -26379,7 +26379,7 @@
         <v>5000.0</v>
       </c>
       <c r="M59">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N59">
         <v>0.002</v>
@@ -26435,7 +26435,7 @@
         <v>5000.0</v>
       </c>
       <c r="M60">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N60">
         <v>0.002</v>
@@ -26491,7 +26491,7 @@
         <v>5000.0</v>
       </c>
       <c r="M61">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N61">
         <v>0.002</v>
@@ -26547,7 +26547,7 @@
         <v>5000.0</v>
       </c>
       <c r="M62">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N62">
         <v>0.002</v>
@@ -26603,7 +26603,7 @@
         <v>5000.0</v>
       </c>
       <c r="M63">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N63">
         <v>0.002</v>
@@ -26659,7 +26659,7 @@
         <v>5000.0</v>
       </c>
       <c r="M64">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N64">
         <v>0.002</v>
@@ -26715,7 +26715,7 @@
         <v>5000.0</v>
       </c>
       <c r="M65">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N65">
         <v>0.002</v>
@@ -26771,7 +26771,7 @@
         <v>5000.0</v>
       </c>
       <c r="M66">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N66">
         <v>0.002</v>
@@ -26827,7 +26827,7 @@
         <v>5000.0</v>
       </c>
       <c r="M67">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N67">
         <v>0.002</v>
@@ -26883,7 +26883,7 @@
         <v>5000.0</v>
       </c>
       <c r="M68">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N68">
         <v>0.002</v>
@@ -26939,7 +26939,7 @@
         <v>5000.0</v>
       </c>
       <c r="M69">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N69">
         <v>0.002</v>
@@ -26995,7 +26995,7 @@
         <v>5000.0</v>
       </c>
       <c r="M70">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N70">
         <v>0.002</v>
@@ -27051,7 +27051,7 @@
         <v>5000.0</v>
       </c>
       <c r="M71">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N71">
         <v>0.002</v>
@@ -27107,7 +27107,7 @@
         <v>5000.0</v>
       </c>
       <c r="M72">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N72">
         <v>0.002</v>
@@ -27163,7 +27163,7 @@
         <v>5000.0</v>
       </c>
       <c r="M73">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N73">
         <v>0.002</v>
@@ -27219,7 +27219,7 @@
         <v>5000.0</v>
       </c>
       <c r="M74">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N74">
         <v>0.002</v>
@@ -27275,7 +27275,7 @@
         <v>5000.0</v>
       </c>
       <c r="M75">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N75">
         <v>0.002</v>
@@ -27331,7 +27331,7 @@
         <v>5000.0</v>
       </c>
       <c r="M76">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N76">
         <v>0.002</v>
@@ -27387,7 +27387,7 @@
         <v>5000.0</v>
       </c>
       <c r="M77">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N77">
         <v>0.002</v>
@@ -27443,7 +27443,7 @@
         <v>5000.0</v>
       </c>
       <c r="M78">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N78">
         <v>0.002</v>
@@ -27499,7 +27499,7 @@
         <v>5000.0</v>
       </c>
       <c r="M79">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N79">
         <v>0.002</v>
@@ -27555,7 +27555,7 @@
         <v>5000.0</v>
       </c>
       <c r="M80">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N80">
         <v>0.002</v>
@@ -27611,7 +27611,7 @@
         <v>5000.0</v>
       </c>
       <c r="M81">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N81">
         <v>0.002</v>
@@ -27667,7 +27667,7 @@
         <v>5000.0</v>
       </c>
       <c r="M82">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N82">
         <v>0.002</v>
@@ -27723,7 +27723,7 @@
         <v>5000.0</v>
       </c>
       <c r="M83">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N83">
         <v>0.002</v>
@@ -27779,7 +27779,7 @@
         <v>5000.0</v>
       </c>
       <c r="M84">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N84">
         <v>0.002</v>
@@ -27835,7 +27835,7 @@
         <v>5000.0</v>
       </c>
       <c r="M85">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N85">
         <v>0.002</v>
@@ -27891,7 +27891,7 @@
         <v>5000.0</v>
       </c>
       <c r="M86">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N86">
         <v>0.002</v>
@@ -27947,7 +27947,7 @@
         <v>5000.0</v>
       </c>
       <c r="M87">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N87">
         <v>0.002</v>
@@ -28003,7 +28003,7 @@
         <v>5000.0</v>
       </c>
       <c r="M88">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N88">
         <v>0.002</v>
@@ -28059,7 +28059,7 @@
         <v>5000.0</v>
       </c>
       <c r="M89">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N89">
         <v>0.002</v>
@@ -28115,7 +28115,7 @@
         <v>5000.0</v>
       </c>
       <c r="M90">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N90">
         <v>0.002</v>
@@ -28171,7 +28171,7 @@
         <v>5000.0</v>
       </c>
       <c r="M91">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N91">
         <v>0.002</v>
@@ -28227,7 +28227,7 @@
         <v>5000.0</v>
       </c>
       <c r="M92">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N92">
         <v>0.002</v>
@@ -28283,7 +28283,7 @@
         <v>5000.0</v>
       </c>
       <c r="M93">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N93">
         <v>0.002</v>
@@ -28339,7 +28339,7 @@
         <v>5000.0</v>
       </c>
       <c r="M94">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N94">
         <v>0.002</v>
@@ -28395,7 +28395,7 @@
         <v>5000.0</v>
       </c>
       <c r="M95">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N95">
         <v>0.002</v>
@@ -28451,7 +28451,7 @@
         <v>5000.0</v>
       </c>
       <c r="M96">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N96">
         <v>0.002</v>
@@ -28507,7 +28507,7 @@
         <v>5000.0</v>
       </c>
       <c r="M97">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N97">
         <v>0.002</v>
@@ -28563,7 +28563,7 @@
         <v>5000.0</v>
       </c>
       <c r="M98">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N98">
         <v>0.002</v>
@@ -28619,7 +28619,7 @@
         <v>5000.0</v>
       </c>
       <c r="M99">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N99">
         <v>0.002</v>
@@ -28675,7 +28675,7 @@
         <v>5000.0</v>
       </c>
       <c r="M100">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N100">
         <v>0.002</v>
@@ -28731,7 +28731,7 @@
         <v>5000.0</v>
       </c>
       <c r="M101">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N101">
         <v>0.002</v>
@@ -28787,7 +28787,7 @@
         <v>5000.0</v>
       </c>
       <c r="M102">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N102">
         <v>0.002</v>
@@ -28843,7 +28843,7 @@
         <v>5000.0</v>
       </c>
       <c r="M103">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N103">
         <v>0.002</v>
@@ -28899,7 +28899,7 @@
         <v>5000.0</v>
       </c>
       <c r="M104">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N104">
         <v>0.002</v>
@@ -28955,7 +28955,7 @@
         <v>5000.0</v>
       </c>
       <c r="M105">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N105">
         <v>0.002</v>
@@ -29011,7 +29011,7 @@
         <v>5000.0</v>
       </c>
       <c r="M106">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N106">
         <v>0.002</v>
@@ -29067,7 +29067,7 @@
         <v>5000.0</v>
       </c>
       <c r="M107">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N107">
         <v>0.002</v>
@@ -29123,7 +29123,7 @@
         <v>5000.0</v>
       </c>
       <c r="M108">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N108">
         <v>0.002</v>
@@ -29179,7 +29179,7 @@
         <v>5000.0</v>
       </c>
       <c r="M109">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N109">
         <v>0.002</v>
@@ -29235,7 +29235,7 @@
         <v>5000.0</v>
       </c>
       <c r="M110">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N110">
         <v>0.002</v>
@@ -29291,7 +29291,7 @@
         <v>5000.0</v>
       </c>
       <c r="M111">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N111">
         <v>0.002</v>
@@ -29347,7 +29347,7 @@
         <v>5000.0</v>
       </c>
       <c r="M112">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N112">
         <v>0.002</v>
@@ -29403,7 +29403,7 @@
         <v>5000.0</v>
       </c>
       <c r="M113">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N113">
         <v>0.002</v>
@@ -29459,7 +29459,7 @@
         <v>5000.0</v>
       </c>
       <c r="M114">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N114">
         <v>0.002</v>
@@ -29515,7 +29515,7 @@
         <v>5000.0</v>
       </c>
       <c r="M115">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N115">
         <v>0.002</v>
@@ -29571,7 +29571,7 @@
         <v>5000.0</v>
       </c>
       <c r="M116">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N116">
         <v>0.002</v>
@@ -29627,7 +29627,7 @@
         <v>5000.0</v>
       </c>
       <c r="M117">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N117">
         <v>0.002</v>
@@ -29683,7 +29683,7 @@
         <v>5000.0</v>
       </c>
       <c r="M118">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N118">
         <v>0.002</v>
@@ -29739,7 +29739,7 @@
         <v>5000.0</v>
       </c>
       <c r="M119">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N119">
         <v>0.002</v>
@@ -29795,7 +29795,7 @@
         <v>5000.0</v>
       </c>
       <c r="M120">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N120">
         <v>0.002</v>
@@ -29851,7 +29851,7 @@
         <v>5000.0</v>
       </c>
       <c r="M121">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N121">
         <v>0.002</v>
@@ -29907,7 +29907,7 @@
         <v>5000.0</v>
       </c>
       <c r="M122">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N122">
         <v>0.002</v>
@@ -29963,7 +29963,7 @@
         <v>5000.0</v>
       </c>
       <c r="M123">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N123">
         <v>0.002</v>
@@ -30019,7 +30019,7 @@
         <v>5000.0</v>
       </c>
       <c r="M124">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N124">
         <v>0.002</v>
@@ -30075,7 +30075,7 @@
         <v>5000.0</v>
       </c>
       <c r="M125">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N125">
         <v>0.002</v>
@@ -30131,7 +30131,7 @@
         <v>5000.0</v>
       </c>
       <c r="M126">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N126">
         <v>0.002</v>
@@ -30187,7 +30187,7 @@
         <v>5000.0</v>
       </c>
       <c r="M127">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N127">
         <v>0.002</v>
@@ -30243,7 +30243,7 @@
         <v>5000.0</v>
       </c>
       <c r="M128">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N128">
         <v>0.002</v>
@@ -30299,7 +30299,7 @@
         <v>5000.0</v>
       </c>
       <c r="M129">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N129">
         <v>0.002</v>
@@ -30355,7 +30355,7 @@
         <v>5000.0</v>
       </c>
       <c r="M130">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N130">
         <v>0.002</v>
@@ -30411,7 +30411,7 @@
         <v>5000.0</v>
       </c>
       <c r="M131">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N131">
         <v>0.002</v>
@@ -30467,7 +30467,7 @@
         <v>5000.0</v>
       </c>
       <c r="M132">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N132">
         <v>0.002</v>
@@ -30523,7 +30523,7 @@
         <v>5000.0</v>
       </c>
       <c r="M133">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N133">
         <v>0.002</v>
@@ -30579,7 +30579,7 @@
         <v>5000.0</v>
       </c>
       <c r="M134">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N134">
         <v>0.002</v>
@@ -30635,7 +30635,7 @@
         <v>5000.0</v>
       </c>
       <c r="M135">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N135">
         <v>0.002</v>
@@ -30691,7 +30691,7 @@
         <v>5000.0</v>
       </c>
       <c r="M136">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N136">
         <v>0.002</v>
@@ -30747,7 +30747,7 @@
         <v>5000.0</v>
       </c>
       <c r="M137">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N137">
         <v>0.002</v>
@@ -30803,7 +30803,7 @@
         <v>5000.0</v>
       </c>
       <c r="M138">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N138">
         <v>0.002</v>
@@ -30859,7 +30859,7 @@
         <v>5000.0</v>
       </c>
       <c r="M139">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N139">
         <v>0.002</v>
@@ -30915,7 +30915,7 @@
         <v>5000.0</v>
       </c>
       <c r="M140">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N140">
         <v>0.002</v>
@@ -30971,7 +30971,7 @@
         <v>5000.0</v>
       </c>
       <c r="M141">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N141">
         <v>0.002</v>
@@ -31027,7 +31027,7 @@
         <v>5000.0</v>
       </c>
       <c r="M142">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N142">
         <v>0.002</v>
@@ -31083,7 +31083,7 @@
         <v>5000.0</v>
       </c>
       <c r="M143">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N143">
         <v>0.002</v>
@@ -31139,7 +31139,7 @@
         <v>5000.0</v>
       </c>
       <c r="M144">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N144">
         <v>0.002</v>
@@ -31195,7 +31195,7 @@
         <v>5000.0</v>
       </c>
       <c r="M145">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N145">
         <v>0.002</v>
@@ -31251,7 +31251,7 @@
         <v>5000.0</v>
       </c>
       <c r="M146">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N146">
         <v>0.002</v>
@@ -31307,7 +31307,7 @@
         <v>5000.0</v>
       </c>
       <c r="M147">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N147">
         <v>0.002</v>
@@ -31363,7 +31363,7 @@
         <v>5000.0</v>
       </c>
       <c r="M148">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N148">
         <v>0.002</v>
@@ -31419,7 +31419,7 @@
         <v>5000.0</v>
       </c>
       <c r="M149">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N149">
         <v>0.002</v>
@@ -31475,7 +31475,7 @@
         <v>5000.0</v>
       </c>
       <c r="M150">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N150">
         <v>0.002</v>
@@ -31531,7 +31531,7 @@
         <v>5000.0</v>
       </c>
       <c r="M151">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N151">
         <v>0.002</v>
@@ -31587,7 +31587,7 @@
         <v>5000.0</v>
       </c>
       <c r="M152">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N152">
         <v>0.002</v>
@@ -31643,7 +31643,7 @@
         <v>5000.0</v>
       </c>
       <c r="M153">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N153">
         <v>0.002</v>
@@ -31699,7 +31699,7 @@
         <v>5000.0</v>
       </c>
       <c r="M154">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N154">
         <v>0.002</v>
@@ -31755,7 +31755,7 @@
         <v>5000.0</v>
       </c>
       <c r="M155">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N155">
         <v>0.002</v>
@@ -31811,7 +31811,7 @@
         <v>5000.0</v>
       </c>
       <c r="M156">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N156">
         <v>0.002</v>
@@ -31867,7 +31867,7 @@
         <v>5000.0</v>
       </c>
       <c r="M157">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N157">
         <v>0.002</v>
@@ -31923,7 +31923,7 @@
         <v>5000.0</v>
       </c>
       <c r="M158">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N158">
         <v>0.002</v>
@@ -31979,7 +31979,7 @@
         <v>5000.0</v>
       </c>
       <c r="M159">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N159">
         <v>0.002</v>
@@ -32035,7 +32035,7 @@
         <v>5000.0</v>
       </c>
       <c r="M160">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N160">
         <v>0.002</v>
@@ -32091,7 +32091,7 @@
         <v>5000.0</v>
       </c>
       <c r="M161">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N161">
         <v>0.002</v>
@@ -32147,7 +32147,7 @@
         <v>5000.0</v>
       </c>
       <c r="M162">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N162">
         <v>0.002</v>
@@ -32203,7 +32203,7 @@
         <v>5000.0</v>
       </c>
       <c r="M163">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N163">
         <v>0.002</v>
@@ -32259,7 +32259,7 @@
         <v>5000.0</v>
       </c>
       <c r="M164">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N164">
         <v>0.002</v>
@@ -32315,7 +32315,7 @@
         <v>5000.0</v>
       </c>
       <c r="M165">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N165">
         <v>0.002</v>
@@ -32371,7 +32371,7 @@
         <v>5000.0</v>
       </c>
       <c r="M166">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N166">
         <v>0.002</v>
@@ -32427,7 +32427,7 @@
         <v>5000.0</v>
       </c>
       <c r="M167">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N167">
         <v>0.002</v>
@@ -32483,7 +32483,7 @@
         <v>5000.0</v>
       </c>
       <c r="M168">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N168">
         <v>0.002</v>
@@ -32539,7 +32539,7 @@
         <v>5000.0</v>
       </c>
       <c r="M169">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N169">
         <v>0.002</v>
@@ -32595,7 +32595,7 @@
         <v>5000.0</v>
       </c>
       <c r="M170">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N170">
         <v>0.002</v>
@@ -32651,7 +32651,7 @@
         <v>5000.0</v>
       </c>
       <c r="M171">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N171">
         <v>0.002</v>
@@ -32707,7 +32707,7 @@
         <v>5000.0</v>
       </c>
       <c r="M172">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N172">
         <v>0.002</v>
@@ -32763,7 +32763,7 @@
         <v>5000.0</v>
       </c>
       <c r="M173">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N173">
         <v>0.002</v>
@@ -32819,7 +32819,7 @@
         <v>5000.0</v>
       </c>
       <c r="M174">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N174">
         <v>0.002</v>
@@ -32875,7 +32875,7 @@
         <v>5000.0</v>
       </c>
       <c r="M175">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N175">
         <v>0.002</v>
@@ -32931,7 +32931,7 @@
         <v>5000.0</v>
       </c>
       <c r="M176">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N176">
         <v>0.002</v>
@@ -32987,7 +32987,7 @@
         <v>5000.0</v>
       </c>
       <c r="M177">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N177">
         <v>0.002</v>
@@ -33043,7 +33043,7 @@
         <v>5000.0</v>
       </c>
       <c r="M178">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N178">
         <v>0.002</v>
@@ -33099,7 +33099,7 @@
         <v>5000.0</v>
       </c>
       <c r="M179">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N179">
         <v>0.002</v>
@@ -33155,7 +33155,7 @@
         <v>5000.0</v>
       </c>
       <c r="M180">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N180">
         <v>0.002</v>
@@ -33211,7 +33211,7 @@
         <v>5000.0</v>
       </c>
       <c r="M181">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N181">
         <v>0.002</v>
@@ -33267,7 +33267,7 @@
         <v>5000.0</v>
       </c>
       <c r="M182">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N182">
         <v>0.002</v>
@@ -33323,7 +33323,7 @@
         <v>5000.0</v>
       </c>
       <c r="M183">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N183">
         <v>0.002</v>
@@ -33379,7 +33379,7 @@
         <v>5000.0</v>
       </c>
       <c r="M184">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N184">
         <v>0.002</v>
@@ -33435,7 +33435,7 @@
         <v>5000.0</v>
       </c>
       <c r="M185">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N185">
         <v>0.002</v>
@@ -33491,7 +33491,7 @@
         <v>5000.0</v>
       </c>
       <c r="M186">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N186">
         <v>0.002</v>
@@ -33547,7 +33547,7 @@
         <v>5000.0</v>
       </c>
       <c r="M187">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N187">
         <v>0.002</v>
@@ -33603,7 +33603,7 @@
         <v>5000.0</v>
       </c>
       <c r="M188">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N188">
         <v>0.002</v>
@@ -33659,7 +33659,7 @@
         <v>5000.0</v>
       </c>
       <c r="M189">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N189">
         <v>0.002</v>
@@ -33715,7 +33715,7 @@
         <v>5000.0</v>
       </c>
       <c r="M190">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N190">
         <v>0.002</v>
@@ -33771,7 +33771,7 @@
         <v>5000.0</v>
       </c>
       <c r="M191">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N191">
         <v>0.002</v>
@@ -33827,7 +33827,7 @@
         <v>5000.0</v>
       </c>
       <c r="M192">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N192">
         <v>0.002</v>
@@ -33883,7 +33883,7 @@
         <v>5000.0</v>
       </c>
       <c r="M193">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N193">
         <v>0.002</v>
@@ -33939,7 +33939,7 @@
         <v>5000.0</v>
       </c>
       <c r="M194">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N194">
         <v>0.002</v>
@@ -33995,7 +33995,7 @@
         <v>5000.0</v>
       </c>
       <c r="M195">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N195">
         <v>0.002</v>
@@ -34051,7 +34051,7 @@
         <v>5000.0</v>
       </c>
       <c r="M196">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N196">
         <v>0.002</v>
@@ -34107,7 +34107,7 @@
         <v>5000.0</v>
       </c>
       <c r="M197">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N197">
         <v>0.002</v>
@@ -34163,7 +34163,7 @@
         <v>5000.0</v>
       </c>
       <c r="M198">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N198">
         <v>0.002</v>
@@ -34219,7 +34219,7 @@
         <v>5000.0</v>
       </c>
       <c r="M199">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N199">
         <v>0.002</v>
@@ -34275,7 +34275,7 @@
         <v>5000.0</v>
       </c>
       <c r="M200">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N200">
         <v>0.002</v>
@@ -34331,7 +34331,7 @@
         <v>5000.0</v>
       </c>
       <c r="M201">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N201">
         <v>0.002</v>
@@ -34387,7 +34387,7 @@
         <v>5000.0</v>
       </c>
       <c r="M202">
-        <v>2.5136940980204373e-8</v>
+        <v>2.513694098020437e-8</v>
       </c>
       <c r="N202">
         <v>0.002</v>
@@ -34512,7 +34512,7 @@
         <v>5000.0</v>
       </c>
       <c r="M2">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N2">
         <v>0.002</v>
@@ -34568,7 +34568,7 @@
         <v>5000.0</v>
       </c>
       <c r="M3">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N3">
         <v>0.002</v>
@@ -34624,7 +34624,7 @@
         <v>5000.0</v>
       </c>
       <c r="M4">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N4">
         <v>0.002</v>
@@ -34680,7 +34680,7 @@
         <v>5000.0</v>
       </c>
       <c r="M5">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N5">
         <v>0.002</v>
@@ -34736,7 +34736,7 @@
         <v>5000.0</v>
       </c>
       <c r="M6">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N6">
         <v>0.002</v>
@@ -34792,7 +34792,7 @@
         <v>5000.0</v>
       </c>
       <c r="M7">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N7">
         <v>0.002</v>
@@ -34848,7 +34848,7 @@
         <v>5000.0</v>
       </c>
       <c r="M8">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N8">
         <v>0.002</v>
@@ -34904,7 +34904,7 @@
         <v>5000.0</v>
       </c>
       <c r="M9">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N9">
         <v>0.002</v>
@@ -34960,7 +34960,7 @@
         <v>5000.0</v>
       </c>
       <c r="M10">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N10">
         <v>0.002</v>
@@ -35016,7 +35016,7 @@
         <v>5000.0</v>
       </c>
       <c r="M11">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N11">
         <v>0.002</v>
@@ -35072,7 +35072,7 @@
         <v>5000.0</v>
       </c>
       <c r="M12">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N12">
         <v>0.002</v>
@@ -35128,7 +35128,7 @@
         <v>5000.0</v>
       </c>
       <c r="M13">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N13">
         <v>0.002</v>
@@ -35184,7 +35184,7 @@
         <v>5000.0</v>
       </c>
       <c r="M14">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N14">
         <v>0.002</v>
@@ -35240,7 +35240,7 @@
         <v>5000.0</v>
       </c>
       <c r="M15">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N15">
         <v>0.002</v>
@@ -35296,7 +35296,7 @@
         <v>5000.0</v>
       </c>
       <c r="M16">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N16">
         <v>0.002</v>
@@ -35352,7 +35352,7 @@
         <v>5000.0</v>
       </c>
       <c r="M17">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N17">
         <v>0.002</v>
@@ -35408,7 +35408,7 @@
         <v>5000.0</v>
       </c>
       <c r="M18">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N18">
         <v>0.002</v>
@@ -35464,7 +35464,7 @@
         <v>5000.0</v>
       </c>
       <c r="M19">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N19">
         <v>0.002</v>
@@ -35520,7 +35520,7 @@
         <v>5000.0</v>
       </c>
       <c r="M20">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N20">
         <v>0.002</v>
@@ -35576,7 +35576,7 @@
         <v>5000.0</v>
       </c>
       <c r="M21">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N21">
         <v>0.002</v>
@@ -35632,7 +35632,7 @@
         <v>5000.0</v>
       </c>
       <c r="M22">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N22">
         <v>0.002</v>
@@ -35688,7 +35688,7 @@
         <v>5000.0</v>
       </c>
       <c r="M23">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N23">
         <v>0.002</v>
@@ -35744,7 +35744,7 @@
         <v>5000.0</v>
       </c>
       <c r="M24">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N24">
         <v>0.002</v>
@@ -35800,7 +35800,7 @@
         <v>5000.0</v>
       </c>
       <c r="M25">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N25">
         <v>0.002</v>
@@ -35856,7 +35856,7 @@
         <v>5000.0</v>
       </c>
       <c r="M26">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N26">
         <v>0.002</v>
@@ -35912,7 +35912,7 @@
         <v>5000.0</v>
       </c>
       <c r="M27">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N27">
         <v>0.002</v>
@@ -35968,7 +35968,7 @@
         <v>5000.0</v>
       </c>
       <c r="M28">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N28">
         <v>0.002</v>
@@ -36024,7 +36024,7 @@
         <v>5000.0</v>
       </c>
       <c r="M29">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N29">
         <v>0.002</v>
@@ -36080,7 +36080,7 @@
         <v>5000.0</v>
       </c>
       <c r="M30">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N30">
         <v>0.002</v>
@@ -36136,7 +36136,7 @@
         <v>5000.0</v>
       </c>
       <c r="M31">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N31">
         <v>0.002</v>
@@ -36192,7 +36192,7 @@
         <v>5000.0</v>
       </c>
       <c r="M32">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N32">
         <v>0.002</v>
@@ -36248,7 +36248,7 @@
         <v>5000.0</v>
       </c>
       <c r="M33">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N33">
         <v>0.002</v>
@@ -36304,7 +36304,7 @@
         <v>5000.0</v>
       </c>
       <c r="M34">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N34">
         <v>0.002</v>
@@ -36360,7 +36360,7 @@
         <v>5000.0</v>
       </c>
       <c r="M35">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N35">
         <v>0.002</v>
@@ -36416,7 +36416,7 @@
         <v>5000.0</v>
       </c>
       <c r="M36">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N36">
         <v>0.002</v>
@@ -36472,7 +36472,7 @@
         <v>5000.0</v>
       </c>
       <c r="M37">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N37">
         <v>0.002</v>
@@ -36528,7 +36528,7 @@
         <v>5000.0</v>
       </c>
       <c r="M38">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N38">
         <v>0.002</v>
@@ -36584,7 +36584,7 @@
         <v>5000.0</v>
       </c>
       <c r="M39">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N39">
         <v>0.002</v>
@@ -36640,7 +36640,7 @@
         <v>5000.0</v>
       </c>
       <c r="M40">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N40">
         <v>0.002</v>
@@ -36696,7 +36696,7 @@
         <v>5000.0</v>
       </c>
       <c r="M41">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N41">
         <v>0.002</v>
@@ -36752,7 +36752,7 @@
         <v>5000.0</v>
       </c>
       <c r="M42">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N42">
         <v>0.002</v>
@@ -36808,7 +36808,7 @@
         <v>5000.0</v>
       </c>
       <c r="M43">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N43">
         <v>0.002</v>
@@ -36864,7 +36864,7 @@
         <v>5000.0</v>
       </c>
       <c r="M44">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N44">
         <v>0.002</v>
@@ -36920,7 +36920,7 @@
         <v>5000.0</v>
       </c>
       <c r="M45">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N45">
         <v>0.002</v>
@@ -36976,7 +36976,7 @@
         <v>5000.0</v>
       </c>
       <c r="M46">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N46">
         <v>0.002</v>
@@ -37032,7 +37032,7 @@
         <v>5000.0</v>
       </c>
       <c r="M47">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N47">
         <v>0.002</v>
@@ -37088,7 +37088,7 @@
         <v>5000.0</v>
       </c>
       <c r="M48">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N48">
         <v>0.002</v>
@@ -37144,7 +37144,7 @@
         <v>5000.0</v>
       </c>
       <c r="M49">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N49">
         <v>0.002</v>
@@ -37200,7 +37200,7 @@
         <v>5000.0</v>
       </c>
       <c r="M50">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N50">
         <v>0.002</v>
@@ -37256,7 +37256,7 @@
         <v>5000.0</v>
       </c>
       <c r="M51">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N51">
         <v>0.002</v>
@@ -37312,7 +37312,7 @@
         <v>5000.0</v>
       </c>
       <c r="M52">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N52">
         <v>0.002</v>
@@ -37368,7 +37368,7 @@
         <v>5000.0</v>
       </c>
       <c r="M53">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N53">
         <v>0.002</v>
@@ -37424,7 +37424,7 @@
         <v>5000.0</v>
       </c>
       <c r="M54">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N54">
         <v>0.002</v>
@@ -37480,7 +37480,7 @@
         <v>5000.0</v>
       </c>
       <c r="M55">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N55">
         <v>0.002</v>
@@ -37536,7 +37536,7 @@
         <v>5000.0</v>
       </c>
       <c r="M56">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N56">
         <v>0.002</v>
@@ -37592,7 +37592,7 @@
         <v>5000.0</v>
       </c>
       <c r="M57">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N57">
         <v>0.002</v>
@@ -37648,7 +37648,7 @@
         <v>5000.0</v>
       </c>
       <c r="M58">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N58">
         <v>0.002</v>
@@ -37704,7 +37704,7 @@
         <v>5000.0</v>
       </c>
       <c r="M59">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N59">
         <v>0.002</v>
@@ -37760,7 +37760,7 @@
         <v>5000.0</v>
       </c>
       <c r="M60">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N60">
         <v>0.002</v>
@@ -37816,7 +37816,7 @@
         <v>5000.0</v>
       </c>
       <c r="M61">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N61">
         <v>0.002</v>
@@ -37872,7 +37872,7 @@
         <v>5000.0</v>
       </c>
       <c r="M62">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N62">
         <v>0.002</v>
@@ -37928,7 +37928,7 @@
         <v>5000.0</v>
       </c>
       <c r="M63">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N63">
         <v>0.002</v>
@@ -37984,7 +37984,7 @@
         <v>5000.0</v>
       </c>
       <c r="M64">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N64">
         <v>0.002</v>
@@ -38040,7 +38040,7 @@
         <v>5000.0</v>
       </c>
       <c r="M65">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N65">
         <v>0.002</v>
@@ -38096,7 +38096,7 @@
         <v>5000.0</v>
       </c>
       <c r="M66">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N66">
         <v>0.002</v>
@@ -38152,7 +38152,7 @@
         <v>5000.0</v>
       </c>
       <c r="M67">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N67">
         <v>0.002</v>
@@ -38208,7 +38208,7 @@
         <v>5000.0</v>
       </c>
       <c r="M68">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N68">
         <v>0.002</v>
@@ -38264,7 +38264,7 @@
         <v>5000.0</v>
       </c>
       <c r="M69">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N69">
         <v>0.002</v>
@@ -38320,7 +38320,7 @@
         <v>5000.0</v>
       </c>
       <c r="M70">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N70">
         <v>0.002</v>
@@ -38376,7 +38376,7 @@
         <v>5000.0</v>
       </c>
       <c r="M71">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N71">
         <v>0.002</v>
@@ -38432,7 +38432,7 @@
         <v>5000.0</v>
       </c>
       <c r="M72">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N72">
         <v>0.002</v>
@@ -38488,7 +38488,7 @@
         <v>5000.0</v>
       </c>
       <c r="M73">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N73">
         <v>0.002</v>
@@ -38544,7 +38544,7 @@
         <v>5000.0</v>
       </c>
       <c r="M74">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N74">
         <v>0.002</v>
@@ -38600,7 +38600,7 @@
         <v>5000.0</v>
       </c>
       <c r="M75">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N75">
         <v>0.002</v>
@@ -38656,7 +38656,7 @@
         <v>5000.0</v>
       </c>
       <c r="M76">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N76">
         <v>0.002</v>
@@ -38712,7 +38712,7 @@
         <v>5000.0</v>
       </c>
       <c r="M77">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N77">
         <v>0.002</v>
@@ -38768,7 +38768,7 @@
         <v>5000.0</v>
       </c>
       <c r="M78">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N78">
         <v>0.002</v>
@@ -38824,7 +38824,7 @@
         <v>5000.0</v>
       </c>
       <c r="M79">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N79">
         <v>0.002</v>
@@ -38880,7 +38880,7 @@
         <v>5000.0</v>
       </c>
       <c r="M80">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N80">
         <v>0.002</v>
@@ -38936,7 +38936,7 @@
         <v>5000.0</v>
       </c>
       <c r="M81">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N81">
         <v>0.002</v>
@@ -38992,7 +38992,7 @@
         <v>5000.0</v>
       </c>
       <c r="M82">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N82">
         <v>0.002</v>
@@ -39048,7 +39048,7 @@
         <v>5000.0</v>
       </c>
       <c r="M83">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N83">
         <v>0.002</v>
@@ -39104,7 +39104,7 @@
         <v>5000.0</v>
       </c>
       <c r="M84">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N84">
         <v>0.002</v>
@@ -39160,7 +39160,7 @@
         <v>5000.0</v>
       </c>
       <c r="M85">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N85">
         <v>0.002</v>
@@ -39216,7 +39216,7 @@
         <v>5000.0</v>
       </c>
       <c r="M86">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N86">
         <v>0.002</v>
@@ -39272,7 +39272,7 @@
         <v>5000.0</v>
       </c>
       <c r="M87">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N87">
         <v>0.002</v>
@@ -39328,7 +39328,7 @@
         <v>5000.0</v>
       </c>
       <c r="M88">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N88">
         <v>0.002</v>
@@ -39384,7 +39384,7 @@
         <v>5000.0</v>
       </c>
       <c r="M89">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N89">
         <v>0.002</v>
@@ -39440,7 +39440,7 @@
         <v>5000.0</v>
       </c>
       <c r="M90">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N90">
         <v>0.002</v>
@@ -39496,7 +39496,7 @@
         <v>5000.0</v>
       </c>
       <c r="M91">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N91">
         <v>0.002</v>
@@ -39552,7 +39552,7 @@
         <v>5000.0</v>
       </c>
       <c r="M92">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N92">
         <v>0.002</v>
@@ -39608,7 +39608,7 @@
         <v>5000.0</v>
       </c>
       <c r="M93">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N93">
         <v>0.002</v>
@@ -39664,7 +39664,7 @@
         <v>5000.0</v>
       </c>
       <c r="M94">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N94">
         <v>0.002</v>
@@ -39720,7 +39720,7 @@
         <v>5000.0</v>
       </c>
       <c r="M95">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N95">
         <v>0.002</v>
@@ -39776,7 +39776,7 @@
         <v>5000.0</v>
       </c>
       <c r="M96">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N96">
         <v>0.002</v>
@@ -39832,7 +39832,7 @@
         <v>5000.0</v>
       </c>
       <c r="M97">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N97">
         <v>0.002</v>
@@ -39888,7 +39888,7 @@
         <v>5000.0</v>
       </c>
       <c r="M98">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N98">
         <v>0.002</v>
@@ -39944,7 +39944,7 @@
         <v>5000.0</v>
       </c>
       <c r="M99">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N99">
         <v>0.002</v>
@@ -40000,7 +40000,7 @@
         <v>5000.0</v>
       </c>
       <c r="M100">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N100">
         <v>0.002</v>
@@ -40056,7 +40056,7 @@
         <v>5000.0</v>
       </c>
       <c r="M101">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N101">
         <v>0.002</v>
@@ -40112,7 +40112,7 @@
         <v>5000.0</v>
       </c>
       <c r="M102">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N102">
         <v>0.002</v>
@@ -40168,7 +40168,7 @@
         <v>5000.0</v>
       </c>
       <c r="M103">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N103">
         <v>0.002</v>
@@ -40224,7 +40224,7 @@
         <v>5000.0</v>
       </c>
       <c r="M104">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N104">
         <v>0.002</v>
@@ -40280,7 +40280,7 @@
         <v>5000.0</v>
       </c>
       <c r="M105">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N105">
         <v>0.002</v>
@@ -40336,7 +40336,7 @@
         <v>5000.0</v>
       </c>
       <c r="M106">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N106">
         <v>0.002</v>
@@ -40392,7 +40392,7 @@
         <v>5000.0</v>
       </c>
       <c r="M107">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N107">
         <v>0.002</v>
@@ -40448,7 +40448,7 @@
         <v>5000.0</v>
       </c>
       <c r="M108">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N108">
         <v>0.002</v>
@@ -40504,7 +40504,7 @@
         <v>5000.0</v>
       </c>
       <c r="M109">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N109">
         <v>0.002</v>
@@ -40560,7 +40560,7 @@
         <v>5000.0</v>
       </c>
       <c r="M110">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N110">
         <v>0.002</v>
@@ -40616,7 +40616,7 @@
         <v>5000.0</v>
       </c>
       <c r="M111">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N111">
         <v>0.002</v>
@@ -40672,7 +40672,7 @@
         <v>5000.0</v>
       </c>
       <c r="M112">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N112">
         <v>0.002</v>
@@ -40728,7 +40728,7 @@
         <v>5000.0</v>
       </c>
       <c r="M113">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N113">
         <v>0.002</v>
@@ -40784,7 +40784,7 @@
         <v>5000.0</v>
       </c>
       <c r="M114">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N114">
         <v>0.002</v>
@@ -40840,7 +40840,7 @@
         <v>5000.0</v>
       </c>
       <c r="M115">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N115">
         <v>0.002</v>
@@ -40896,7 +40896,7 @@
         <v>5000.0</v>
       </c>
       <c r="M116">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N116">
         <v>0.002</v>
@@ -40952,7 +40952,7 @@
         <v>5000.0</v>
       </c>
       <c r="M117">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N117">
         <v>0.002</v>
@@ -41008,7 +41008,7 @@
         <v>5000.0</v>
       </c>
       <c r="M118">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N118">
         <v>0.002</v>
@@ -41064,7 +41064,7 @@
         <v>5000.0</v>
       </c>
       <c r="M119">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N119">
         <v>0.002</v>
@@ -41120,7 +41120,7 @@
         <v>5000.0</v>
       </c>
       <c r="M120">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N120">
         <v>0.002</v>
@@ -41176,7 +41176,7 @@
         <v>5000.0</v>
       </c>
       <c r="M121">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N121">
         <v>0.002</v>
@@ -41232,7 +41232,7 @@
         <v>5000.0</v>
       </c>
       <c r="M122">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N122">
         <v>0.002</v>
@@ -41288,7 +41288,7 @@
         <v>5000.0</v>
       </c>
       <c r="M123">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N123">
         <v>0.002</v>
@@ -41344,7 +41344,7 @@
         <v>5000.0</v>
       </c>
       <c r="M124">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N124">
         <v>0.002</v>
@@ -41400,7 +41400,7 @@
         <v>5000.0</v>
       </c>
       <c r="M125">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N125">
         <v>0.002</v>
@@ -41456,7 +41456,7 @@
         <v>5000.0</v>
       </c>
       <c r="M126">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N126">
         <v>0.002</v>
@@ -41512,7 +41512,7 @@
         <v>5000.0</v>
       </c>
       <c r="M127">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N127">
         <v>0.002</v>
@@ -41568,7 +41568,7 @@
         <v>5000.0</v>
       </c>
       <c r="M128">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N128">
         <v>0.002</v>
@@ -41624,7 +41624,7 @@
         <v>5000.0</v>
       </c>
       <c r="M129">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N129">
         <v>0.002</v>
@@ -41680,7 +41680,7 @@
         <v>5000.0</v>
       </c>
       <c r="M130">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N130">
         <v>0.002</v>
@@ -41736,7 +41736,7 @@
         <v>5000.0</v>
       </c>
       <c r="M131">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N131">
         <v>0.002</v>
@@ -41792,7 +41792,7 @@
         <v>5000.0</v>
       </c>
       <c r="M132">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N132">
         <v>0.002</v>
@@ -41848,7 +41848,7 @@
         <v>5000.0</v>
       </c>
       <c r="M133">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N133">
         <v>0.002</v>
@@ -41904,7 +41904,7 @@
         <v>5000.0</v>
       </c>
       <c r="M134">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N134">
         <v>0.002</v>
@@ -41960,7 +41960,7 @@
         <v>5000.0</v>
       </c>
       <c r="M135">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N135">
         <v>0.002</v>
@@ -42016,7 +42016,7 @@
         <v>5000.0</v>
       </c>
       <c r="M136">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N136">
         <v>0.002</v>
@@ -42072,7 +42072,7 @@
         <v>5000.0</v>
       </c>
       <c r="M137">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N137">
         <v>0.002</v>
@@ -42128,7 +42128,7 @@
         <v>5000.0</v>
       </c>
       <c r="M138">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N138">
         <v>0.002</v>
@@ -42184,7 +42184,7 @@
         <v>5000.0</v>
       </c>
       <c r="M139">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N139">
         <v>0.002</v>
@@ -42240,7 +42240,7 @@
         <v>5000.0</v>
       </c>
       <c r="M140">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N140">
         <v>0.002</v>
@@ -42296,7 +42296,7 @@
         <v>5000.0</v>
       </c>
       <c r="M141">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N141">
         <v>0.002</v>
@@ -42352,7 +42352,7 @@
         <v>5000.0</v>
       </c>
       <c r="M142">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N142">
         <v>0.002</v>
@@ -42408,7 +42408,7 @@
         <v>5000.0</v>
       </c>
       <c r="M143">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N143">
         <v>0.002</v>
@@ -42464,7 +42464,7 @@
         <v>5000.0</v>
       </c>
       <c r="M144">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N144">
         <v>0.002</v>
@@ -42520,7 +42520,7 @@
         <v>5000.0</v>
       </c>
       <c r="M145">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N145">
         <v>0.002</v>
@@ -42576,7 +42576,7 @@
         <v>5000.0</v>
       </c>
       <c r="M146">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N146">
         <v>0.002</v>
@@ -42632,7 +42632,7 @@
         <v>5000.0</v>
       </c>
       <c r="M147">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N147">
         <v>0.002</v>
@@ -42688,7 +42688,7 @@
         <v>5000.0</v>
       </c>
       <c r="M148">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N148">
         <v>0.002</v>
@@ -42744,7 +42744,7 @@
         <v>5000.0</v>
       </c>
       <c r="M149">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N149">
         <v>0.002</v>
@@ -42800,7 +42800,7 @@
         <v>5000.0</v>
       </c>
       <c r="M150">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N150">
         <v>0.002</v>
@@ -42856,7 +42856,7 @@
         <v>5000.0</v>
       </c>
       <c r="M151">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N151">
         <v>0.002</v>
@@ -42912,7 +42912,7 @@
         <v>5000.0</v>
       </c>
       <c r="M152">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N152">
         <v>0.002</v>
@@ -42968,7 +42968,7 @@
         <v>5000.0</v>
       </c>
       <c r="M153">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N153">
         <v>0.002</v>
@@ -43024,7 +43024,7 @@
         <v>5000.0</v>
       </c>
       <c r="M154">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N154">
         <v>0.002</v>
@@ -43080,7 +43080,7 @@
         <v>5000.0</v>
       </c>
       <c r="M155">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N155">
         <v>0.002</v>
@@ -43136,7 +43136,7 @@
         <v>5000.0</v>
       </c>
       <c r="M156">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N156">
         <v>0.002</v>
@@ -43192,7 +43192,7 @@
         <v>5000.0</v>
       </c>
       <c r="M157">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N157">
         <v>0.002</v>
@@ -43248,7 +43248,7 @@
         <v>5000.0</v>
       </c>
       <c r="M158">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N158">
         <v>0.002</v>
@@ -43304,7 +43304,7 @@
         <v>5000.0</v>
       </c>
       <c r="M159">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N159">
         <v>0.002</v>
@@ -43360,7 +43360,7 @@
         <v>5000.0</v>
       </c>
       <c r="M160">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N160">
         <v>0.002</v>
@@ -43416,7 +43416,7 @@
         <v>5000.0</v>
       </c>
       <c r="M161">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N161">
         <v>0.002</v>
@@ -43472,7 +43472,7 @@
         <v>5000.0</v>
       </c>
       <c r="M162">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N162">
         <v>0.002</v>
@@ -43528,7 +43528,7 @@
         <v>5000.0</v>
       </c>
       <c r="M163">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N163">
         <v>0.002</v>
@@ -43584,7 +43584,7 @@
         <v>5000.0</v>
       </c>
       <c r="M164">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N164">
         <v>0.002</v>
@@ -43640,7 +43640,7 @@
         <v>5000.0</v>
       </c>
       <c r="M165">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N165">
         <v>0.002</v>
@@ -43696,7 +43696,7 @@
         <v>5000.0</v>
       </c>
       <c r="M166">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N166">
         <v>0.002</v>
@@ -43752,7 +43752,7 @@
         <v>5000.0</v>
       </c>
       <c r="M167">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N167">
         <v>0.002</v>
@@ -43808,7 +43808,7 @@
         <v>5000.0</v>
       </c>
       <c r="M168">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N168">
         <v>0.002</v>
@@ -43864,7 +43864,7 @@
         <v>5000.0</v>
       </c>
       <c r="M169">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N169">
         <v>0.002</v>
@@ -43920,7 +43920,7 @@
         <v>5000.0</v>
       </c>
       <c r="M170">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N170">
         <v>0.002</v>
@@ -43976,7 +43976,7 @@
         <v>5000.0</v>
       </c>
       <c r="M171">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N171">
         <v>0.002</v>
@@ -44032,7 +44032,7 @@
         <v>5000.0</v>
       </c>
       <c r="M172">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N172">
         <v>0.002</v>
@@ -44088,7 +44088,7 @@
         <v>5000.0</v>
       </c>
       <c r="M173">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N173">
         <v>0.002</v>
@@ -44144,7 +44144,7 @@
         <v>5000.0</v>
       </c>
       <c r="M174">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N174">
         <v>0.002</v>
@@ -44200,7 +44200,7 @@
         <v>5000.0</v>
       </c>
       <c r="M175">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N175">
         <v>0.002</v>
@@ -44256,7 +44256,7 @@
         <v>5000.0</v>
       </c>
       <c r="M176">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N176">
         <v>0.002</v>
@@ -44312,7 +44312,7 @@
         <v>5000.0</v>
       </c>
       <c r="M177">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N177">
         <v>0.002</v>
@@ -44368,7 +44368,7 @@
         <v>5000.0</v>
       </c>
       <c r="M178">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N178">
         <v>0.002</v>
@@ -44424,7 +44424,7 @@
         <v>5000.0</v>
       </c>
       <c r="M179">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N179">
         <v>0.002</v>
@@ -44480,7 +44480,7 @@
         <v>5000.0</v>
       </c>
       <c r="M180">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N180">
         <v>0.002</v>
@@ -44536,7 +44536,7 @@
         <v>5000.0</v>
       </c>
       <c r="M181">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N181">
         <v>0.002</v>
@@ -44592,7 +44592,7 @@
         <v>5000.0</v>
       </c>
       <c r="M182">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N182">
         <v>0.002</v>
@@ -44648,7 +44648,7 @@
         <v>5000.0</v>
       </c>
       <c r="M183">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N183">
         <v>0.002</v>
@@ -44704,7 +44704,7 @@
         <v>5000.0</v>
       </c>
       <c r="M184">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N184">
         <v>0.002</v>
@@ -44760,7 +44760,7 @@
         <v>5000.0</v>
       </c>
       <c r="M185">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N185">
         <v>0.002</v>
@@ -44816,7 +44816,7 @@
         <v>5000.0</v>
       </c>
       <c r="M186">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N186">
         <v>0.002</v>
@@ -44872,7 +44872,7 @@
         <v>5000.0</v>
       </c>
       <c r="M187">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N187">
         <v>0.002</v>
@@ -44928,7 +44928,7 @@
         <v>5000.0</v>
       </c>
       <c r="M188">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N188">
         <v>0.002</v>
@@ -44984,7 +44984,7 @@
         <v>5000.0</v>
       </c>
       <c r="M189">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N189">
         <v>0.002</v>
@@ -45040,7 +45040,7 @@
         <v>5000.0</v>
       </c>
       <c r="M190">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N190">
         <v>0.002</v>
@@ -45096,7 +45096,7 @@
         <v>5000.0</v>
       </c>
       <c r="M191">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N191">
         <v>0.002</v>
@@ -45152,7 +45152,7 @@
         <v>5000.0</v>
       </c>
       <c r="M192">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N192">
         <v>0.002</v>
@@ -45208,7 +45208,7 @@
         <v>5000.0</v>
       </c>
       <c r="M193">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N193">
         <v>0.002</v>
@@ -45264,7 +45264,7 @@
         <v>5000.0</v>
       </c>
       <c r="M194">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N194">
         <v>0.002</v>
@@ -45320,7 +45320,7 @@
         <v>5000.0</v>
       </c>
       <c r="M195">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N195">
         <v>0.002</v>
@@ -45376,7 +45376,7 @@
         <v>5000.0</v>
       </c>
       <c r="M196">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N196">
         <v>0.002</v>
@@ -45432,7 +45432,7 @@
         <v>5000.0</v>
       </c>
       <c r="M197">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N197">
         <v>0.002</v>
@@ -45488,7 +45488,7 @@
         <v>5000.0</v>
       </c>
       <c r="M198">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N198">
         <v>0.002</v>
@@ -45544,7 +45544,7 @@
         <v>5000.0</v>
       </c>
       <c r="M199">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N199">
         <v>0.002</v>
@@ -45600,7 +45600,7 @@
         <v>5000.0</v>
       </c>
       <c r="M200">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N200">
         <v>0.002</v>
@@ -45656,7 +45656,7 @@
         <v>5000.0</v>
       </c>
       <c r="M201">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N201">
         <v>0.002</v>
@@ -45712,7 +45712,7 @@
         <v>5000.0</v>
       </c>
       <c r="M202">
-        <v>2.5134513331685188e-8</v>
+        <v>2.5134513331685185e-8</v>
       </c>
       <c r="N202">
         <v>0.002</v>
@@ -45837,7 +45837,7 @@
         <v>5000.0</v>
       </c>
       <c r="M2">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N2">
         <v>0.002</v>
@@ -45893,7 +45893,7 @@
         <v>5000.0</v>
       </c>
       <c r="M3">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N3">
         <v>0.002</v>
@@ -45949,7 +45949,7 @@
         <v>5000.0</v>
       </c>
       <c r="M4">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N4">
         <v>0.002</v>
@@ -46005,7 +46005,7 @@
         <v>5000.0</v>
       </c>
       <c r="M5">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N5">
         <v>0.002</v>
@@ -46061,7 +46061,7 @@
         <v>5000.0</v>
       </c>
       <c r="M6">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N6">
         <v>0.002</v>
@@ -46117,7 +46117,7 @@
         <v>5000.0</v>
       </c>
       <c r="M7">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N7">
         <v>0.002</v>
@@ -46173,7 +46173,7 @@
         <v>5000.0</v>
       </c>
       <c r="M8">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N8">
         <v>0.002</v>
@@ -46229,7 +46229,7 @@
         <v>5000.0</v>
       </c>
       <c r="M9">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N9">
         <v>0.002</v>
@@ -46285,7 +46285,7 @@
         <v>5000.0</v>
       </c>
       <c r="M10">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N10">
         <v>0.002</v>
@@ -46341,7 +46341,7 @@
         <v>5000.0</v>
       </c>
       <c r="M11">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N11">
         <v>0.002</v>
@@ -46397,7 +46397,7 @@
         <v>5000.0</v>
       </c>
       <c r="M12">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N12">
         <v>0.002</v>
@@ -46453,7 +46453,7 @@
         <v>5000.0</v>
       </c>
       <c r="M13">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N13">
         <v>0.002</v>
@@ -46509,7 +46509,7 @@
         <v>5000.0</v>
       </c>
       <c r="M14">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N14">
         <v>0.002</v>
@@ -46565,7 +46565,7 @@
         <v>5000.0</v>
       </c>
       <c r="M15">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N15">
         <v>0.002</v>
@@ -46621,7 +46621,7 @@
         <v>5000.0</v>
       </c>
       <c r="M16">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N16">
         <v>0.002</v>
@@ -46677,7 +46677,7 @@
         <v>5000.0</v>
       </c>
       <c r="M17">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N17">
         <v>0.002</v>
@@ -46733,7 +46733,7 @@
         <v>5000.0</v>
       </c>
       <c r="M18">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N18">
         <v>0.002</v>
@@ -46789,7 +46789,7 @@
         <v>5000.0</v>
       </c>
       <c r="M19">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N19">
         <v>0.002</v>
@@ -46845,7 +46845,7 @@
         <v>5000.0</v>
       </c>
       <c r="M20">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N20">
         <v>0.002</v>
@@ -46901,7 +46901,7 @@
         <v>5000.0</v>
       </c>
       <c r="M21">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N21">
         <v>0.002</v>
@@ -46957,7 +46957,7 @@
         <v>5000.0</v>
       </c>
       <c r="M22">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N22">
         <v>0.002</v>
@@ -47013,7 +47013,7 @@
         <v>5000.0</v>
       </c>
       <c r="M23">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N23">
         <v>0.002</v>
@@ -47069,7 +47069,7 @@
         <v>5000.0</v>
       </c>
       <c r="M24">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N24">
         <v>0.002</v>
@@ -47125,7 +47125,7 @@
         <v>5000.0</v>
       </c>
       <c r="M25">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N25">
         <v>0.002</v>
@@ -47181,7 +47181,7 @@
         <v>5000.0</v>
       </c>
       <c r="M26">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N26">
         <v>0.002</v>
@@ -47237,7 +47237,7 @@
         <v>5000.0</v>
       </c>
       <c r="M27">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N27">
         <v>0.002</v>
@@ -47293,7 +47293,7 @@
         <v>5000.0</v>
       </c>
       <c r="M28">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N28">
         <v>0.002</v>
@@ -47349,7 +47349,7 @@
         <v>5000.0</v>
       </c>
       <c r="M29">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N29">
         <v>0.002</v>
@@ -47405,7 +47405,7 @@
         <v>5000.0</v>
       </c>
       <c r="M30">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N30">
         <v>0.002</v>
@@ -47461,7 +47461,7 @@
         <v>5000.0</v>
       </c>
       <c r="M31">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N31">
         <v>0.002</v>
@@ -47517,7 +47517,7 @@
         <v>5000.0</v>
       </c>
       <c r="M32">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N32">
         <v>0.002</v>
@@ -47573,7 +47573,7 @@
         <v>5000.0</v>
       </c>
       <c r="M33">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N33">
         <v>0.002</v>
@@ -47629,7 +47629,7 @@
         <v>5000.0</v>
       </c>
       <c r="M34">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N34">
         <v>0.002</v>
@@ -47685,7 +47685,7 @@
         <v>5000.0</v>
       </c>
       <c r="M35">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N35">
         <v>0.002</v>
@@ -47741,7 +47741,7 @@
         <v>5000.0</v>
       </c>
       <c r="M36">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N36">
         <v>0.002</v>
@@ -47797,7 +47797,7 @@
         <v>5000.0</v>
       </c>
       <c r="M37">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N37">
         <v>0.002</v>
@@ -47853,7 +47853,7 @@
         <v>5000.0</v>
       </c>
       <c r="M38">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N38">
         <v>0.002</v>
@@ -47909,7 +47909,7 @@
         <v>5000.0</v>
       </c>
       <c r="M39">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N39">
         <v>0.002</v>
@@ -47965,7 +47965,7 @@
         <v>5000.0</v>
       </c>
       <c r="M40">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N40">
         <v>0.002</v>
@@ -48021,7 +48021,7 @@
         <v>5000.0</v>
       </c>
       <c r="M41">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N41">
         <v>0.002</v>
@@ -48077,7 +48077,7 @@
         <v>5000.0</v>
       </c>
       <c r="M42">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N42">
         <v>0.002</v>
@@ -48133,7 +48133,7 @@
         <v>5000.0</v>
       </c>
       <c r="M43">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N43">
         <v>0.002</v>
@@ -48189,7 +48189,7 @@
         <v>5000.0</v>
       </c>
       <c r="M44">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N44">
         <v>0.002</v>
@@ -48245,7 +48245,7 @@
         <v>5000.0</v>
       </c>
       <c r="M45">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N45">
         <v>0.002</v>
@@ -48301,7 +48301,7 @@
         <v>5000.0</v>
       </c>
       <c r="M46">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N46">
         <v>0.002</v>
@@ -48357,7 +48357,7 @@
         <v>5000.0</v>
       </c>
       <c r="M47">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N47">
         <v>0.002</v>
@@ -48413,7 +48413,7 @@
         <v>5000.0</v>
       </c>
       <c r="M48">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N48">
         <v>0.002</v>
@@ -48469,7 +48469,7 @@
         <v>5000.0</v>
       </c>
       <c r="M49">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N49">
         <v>0.002</v>
@@ -48525,7 +48525,7 @@
         <v>5000.0</v>
       </c>
       <c r="M50">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N50">
         <v>0.002</v>
@@ -48581,7 +48581,7 @@
         <v>5000.0</v>
       </c>
       <c r="M51">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N51">
         <v>0.002</v>
@@ -48637,7 +48637,7 @@
         <v>5000.0</v>
       </c>
       <c r="M52">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N52">
         <v>0.002</v>
@@ -48693,7 +48693,7 @@
         <v>5000.0</v>
       </c>
       <c r="M53">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N53">
         <v>0.002</v>
@@ -48749,7 +48749,7 @@
         <v>5000.0</v>
       </c>
       <c r="M54">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N54">
         <v>0.002</v>
@@ -48805,7 +48805,7 @@
         <v>5000.0</v>
       </c>
       <c r="M55">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N55">
         <v>0.002</v>
@@ -48861,7 +48861,7 @@
         <v>5000.0</v>
       </c>
       <c r="M56">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N56">
         <v>0.002</v>
@@ -48917,7 +48917,7 @@
         <v>5000.0</v>
       </c>
       <c r="M57">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N57">
         <v>0.002</v>
@@ -48973,7 +48973,7 @@
         <v>5000.0</v>
       </c>
       <c r="M58">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N58">
         <v>0.002</v>
@@ -49029,7 +49029,7 @@
         <v>5000.0</v>
       </c>
       <c r="M59">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N59">
         <v>0.002</v>
@@ -49085,7 +49085,7 @@
         <v>5000.0</v>
       </c>
       <c r="M60">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N60">
         <v>0.002</v>
@@ -49141,7 +49141,7 @@
         <v>5000.0</v>
       </c>
       <c r="M61">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N61">
         <v>0.002</v>
@@ -49197,7 +49197,7 @@
         <v>5000.0</v>
       </c>
       <c r="M62">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N62">
         <v>0.002</v>
@@ -49253,7 +49253,7 @@
         <v>5000.0</v>
       </c>
       <c r="M63">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N63">
         <v>0.002</v>
@@ -49309,7 +49309,7 @@
         <v>5000.0</v>
       </c>
       <c r="M64">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N64">
         <v>0.002</v>
@@ -49365,7 +49365,7 @@
         <v>5000.0</v>
       </c>
       <c r="M65">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N65">
         <v>0.002</v>
@@ -49421,7 +49421,7 @@
         <v>5000.0</v>
       </c>
       <c r="M66">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N66">
         <v>0.002</v>
@@ -49477,7 +49477,7 @@
         <v>5000.0</v>
       </c>
       <c r="M67">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N67">
         <v>0.002</v>
@@ -49533,7 +49533,7 @@
         <v>5000.0</v>
       </c>
       <c r="M68">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N68">
         <v>0.002</v>
@@ -49589,7 +49589,7 @@
         <v>5000.0</v>
       </c>
       <c r="M69">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N69">
         <v>0.002</v>
@@ -49645,7 +49645,7 @@
         <v>5000.0</v>
       </c>
       <c r="M70">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N70">
         <v>0.002</v>
@@ -49701,7 +49701,7 @@
         <v>5000.0</v>
       </c>
       <c r="M71">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N71">
         <v>0.002</v>
@@ -49757,7 +49757,7 @@
         <v>5000.0</v>
       </c>
       <c r="M72">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N72">
         <v>0.002</v>
@@ -49813,7 +49813,7 @@
         <v>5000.0</v>
       </c>
       <c r="M73">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N73">
         <v>0.002</v>
@@ -49869,7 +49869,7 @@
         <v>5000.0</v>
       </c>
       <c r="M74">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N74">
         <v>0.002</v>
@@ -49925,7 +49925,7 @@
         <v>5000.0</v>
       </c>
       <c r="M75">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N75">
         <v>0.002</v>
@@ -49981,7 +49981,7 @@
         <v>5000.0</v>
       </c>
       <c r="M76">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N76">
         <v>0.002</v>
@@ -50037,7 +50037,7 @@
         <v>5000.0</v>
       </c>
       <c r="M77">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N77">
         <v>0.002</v>
@@ -50093,7 +50093,7 @@
         <v>5000.0</v>
       </c>
       <c r="M78">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N78">
         <v>0.002</v>
@@ -50149,7 +50149,7 @@
         <v>5000.0</v>
       </c>
       <c r="M79">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N79">
         <v>0.002</v>
@@ -50205,7 +50205,7 @@
         <v>5000.0</v>
       </c>
       <c r="M80">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N80">
         <v>0.002</v>
@@ -50261,7 +50261,7 @@
         <v>5000.0</v>
       </c>
       <c r="M81">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N81">
         <v>0.002</v>
@@ -50317,7 +50317,7 @@
         <v>5000.0</v>
       </c>
       <c r="M82">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N82">
         <v>0.002</v>
@@ -50373,7 +50373,7 @@
         <v>5000.0</v>
       </c>
       <c r="M83">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N83">
         <v>0.002</v>
@@ -50429,7 +50429,7 @@
         <v>5000.0</v>
       </c>
       <c r="M84">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N84">
         <v>0.002</v>
@@ -50485,7 +50485,7 @@
         <v>5000.0</v>
       </c>
       <c r="M85">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N85">
         <v>0.002</v>
@@ -50541,7 +50541,7 @@
         <v>5000.0</v>
       </c>
       <c r="M86">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N86">
         <v>0.002</v>
@@ -50597,7 +50597,7 @@
         <v>5000.0</v>
       </c>
       <c r="M87">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N87">
         <v>0.002</v>
@@ -50653,7 +50653,7 @@
         <v>5000.0</v>
       </c>
       <c r="M88">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N88">
         <v>0.002</v>
@@ -50709,7 +50709,7 @@
         <v>5000.0</v>
       </c>
       <c r="M89">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N89">
         <v>0.002</v>
@@ -50765,7 +50765,7 @@
         <v>5000.0</v>
       </c>
       <c r="M90">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N90">
         <v>0.002</v>
@@ -50821,7 +50821,7 @@
         <v>5000.0</v>
       </c>
       <c r="M91">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N91">
         <v>0.002</v>
@@ -50877,7 +50877,7 @@
         <v>5000.0</v>
       </c>
       <c r="M92">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N92">
         <v>0.002</v>
@@ -50933,7 +50933,7 @@
         <v>5000.0</v>
       </c>
       <c r="M93">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N93">
         <v>0.002</v>
@@ -50989,7 +50989,7 @@
         <v>5000.0</v>
       </c>
       <c r="M94">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N94">
         <v>0.002</v>
@@ -51045,7 +51045,7 @@
         <v>5000.0</v>
       </c>
       <c r="M95">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N95">
         <v>0.002</v>
@@ -51101,7 +51101,7 @@
         <v>5000.0</v>
       </c>
       <c r="M96">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N96">
         <v>0.002</v>
@@ -51157,7 +51157,7 @@
         <v>5000.0</v>
       </c>
       <c r="M97">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N97">
         <v>0.002</v>
@@ -51213,7 +51213,7 @@
         <v>5000.0</v>
       </c>
       <c r="M98">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N98">
         <v>0.002</v>
@@ -51269,7 +51269,7 @@
         <v>5000.0</v>
       </c>
       <c r="M99">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N99">
         <v>0.002</v>
@@ -51325,7 +51325,7 @@
         <v>5000.0</v>
       </c>
       <c r="M100">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N100">
         <v>0.002</v>
@@ -51381,7 +51381,7 @@
         <v>5000.0</v>
       </c>
       <c r="M101">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N101">
         <v>0.002</v>
@@ -51437,7 +51437,7 @@
         <v>5000.0</v>
       </c>
       <c r="M102">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N102">
         <v>0.002</v>
@@ -51493,7 +51493,7 @@
         <v>5000.0</v>
       </c>
       <c r="M103">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N103">
         <v>0.002</v>
@@ -51549,7 +51549,7 @@
         <v>5000.0</v>
       </c>
       <c r="M104">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N104">
         <v>0.002</v>
@@ -51605,7 +51605,7 @@
         <v>5000.0</v>
       </c>
       <c r="M105">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N105">
         <v>0.002</v>
@@ -51661,7 +51661,7 @@
         <v>5000.0</v>
       </c>
       <c r="M106">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N106">
         <v>0.002</v>
@@ -51717,7 +51717,7 @@
         <v>5000.0</v>
       </c>
       <c r="M107">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N107">
         <v>0.002</v>
@@ -51773,7 +51773,7 @@
         <v>5000.0</v>
       </c>
       <c r="M108">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N108">
         <v>0.002</v>
@@ -51829,7 +51829,7 @@
         <v>5000.0</v>
       </c>
       <c r="M109">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N109">
         <v>0.002</v>
@@ -51885,7 +51885,7 @@
         <v>5000.0</v>
       </c>
       <c r="M110">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N110">
         <v>0.002</v>
@@ -51941,7 +51941,7 @@
         <v>5000.0</v>
       </c>
       <c r="M111">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N111">
         <v>0.002</v>
@@ -51997,7 +51997,7 @@
         <v>5000.0</v>
       </c>
       <c r="M112">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N112">
         <v>0.002</v>
@@ -52053,7 +52053,7 @@
         <v>5000.0</v>
       </c>
       <c r="M113">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N113">
         <v>0.002</v>
@@ -52109,7 +52109,7 @@
         <v>5000.0</v>
       </c>
       <c r="M114">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N114">
         <v>0.002</v>
@@ -52165,7 +52165,7 @@
         <v>5000.0</v>
       </c>
       <c r="M115">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N115">
         <v>0.002</v>
@@ -52221,7 +52221,7 @@
         <v>5000.0</v>
       </c>
       <c r="M116">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N116">
         <v>0.002</v>
@@ -52277,7 +52277,7 @@
         <v>5000.0</v>
       </c>
       <c r="M117">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N117">
         <v>0.002</v>
@@ -52333,7 +52333,7 @@
         <v>5000.0</v>
       </c>
       <c r="M118">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N118">
         <v>0.002</v>
@@ -52389,7 +52389,7 @@
         <v>5000.0</v>
       </c>
       <c r="M119">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N119">
         <v>0.002</v>
@@ -52445,7 +52445,7 @@
         <v>5000.0</v>
       </c>
       <c r="M120">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N120">
         <v>0.002</v>
@@ -52501,7 +52501,7 @@
         <v>5000.0</v>
       </c>
       <c r="M121">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N121">
         <v>0.002</v>
@@ -52557,7 +52557,7 @@
         <v>5000.0</v>
       </c>
       <c r="M122">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N122">
         <v>0.002</v>
@@ -52613,7 +52613,7 @@
         <v>5000.0</v>
       </c>
       <c r="M123">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N123">
         <v>0.002</v>
@@ -52669,7 +52669,7 @@
         <v>5000.0</v>
       </c>
       <c r="M124">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N124">
         <v>0.002</v>
@@ -52725,7 +52725,7 @@
         <v>5000.0</v>
       </c>
       <c r="M125">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N125">
         <v>0.002</v>
@@ -52781,7 +52781,7 @@
         <v>5000.0</v>
       </c>
       <c r="M126">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N126">
         <v>0.002</v>
@@ -52837,7 +52837,7 @@
         <v>5000.0</v>
       </c>
       <c r="M127">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N127">
         <v>0.002</v>
@@ -52893,7 +52893,7 @@
         <v>5000.0</v>
       </c>
       <c r="M128">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N128">
         <v>0.002</v>
@@ -52949,7 +52949,7 @@
         <v>5000.0</v>
       </c>
       <c r="M129">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N129">
         <v>0.002</v>
@@ -53005,7 +53005,7 @@
         <v>5000.0</v>
       </c>
       <c r="M130">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N130">
         <v>0.002</v>
@@ -53061,7 +53061,7 @@
         <v>5000.0</v>
       </c>
       <c r="M131">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N131">
         <v>0.002</v>
@@ -53117,7 +53117,7 @@
         <v>5000.0</v>
       </c>
       <c r="M132">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N132">
         <v>0.002</v>
@@ -53173,7 +53173,7 @@
         <v>5000.0</v>
       </c>
       <c r="M133">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N133">
         <v>0.002</v>
@@ -53229,7 +53229,7 @@
         <v>5000.0</v>
       </c>
       <c r="M134">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N134">
         <v>0.002</v>
@@ -53285,7 +53285,7 @@
         <v>5000.0</v>
       </c>
       <c r="M135">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N135">
         <v>0.002</v>
@@ -53341,7 +53341,7 @@
         <v>5000.0</v>
       </c>
       <c r="M136">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N136">
         <v>0.002</v>
@@ -53397,7 +53397,7 @@
         <v>5000.0</v>
       </c>
       <c r="M137">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N137">
         <v>0.002</v>
@@ -53453,7 +53453,7 @@
         <v>5000.0</v>
       </c>
       <c r="M138">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N138">
         <v>0.002</v>
@@ -53509,7 +53509,7 @@
         <v>5000.0</v>
       </c>
       <c r="M139">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N139">
         <v>0.002</v>
@@ -53565,7 +53565,7 @@
         <v>5000.0</v>
       </c>
       <c r="M140">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N140">
         <v>0.002</v>
@@ -53621,7 +53621,7 @@
         <v>5000.0</v>
       </c>
       <c r="M141">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N141">
         <v>0.002</v>
@@ -53677,7 +53677,7 @@
         <v>5000.0</v>
       </c>
       <c r="M142">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N142">
         <v>0.002</v>
@@ -53733,7 +53733,7 @@
         <v>5000.0</v>
       </c>
       <c r="M143">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N143">
         <v>0.002</v>
@@ -53789,7 +53789,7 @@
         <v>5000.0</v>
       </c>
       <c r="M144">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N144">
         <v>0.002</v>
@@ -53845,7 +53845,7 @@
         <v>5000.0</v>
       </c>
       <c r="M145">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N145">
         <v>0.002</v>
@@ -53901,7 +53901,7 @@
         <v>5000.0</v>
       </c>
       <c r="M146">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N146">
         <v>0.002</v>
@@ -53957,7 +53957,7 @@
         <v>5000.0</v>
       </c>
       <c r="M147">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N147">
         <v>0.002</v>
@@ -54013,7 +54013,7 @@
         <v>5000.0</v>
       </c>
       <c r="M148">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N148">
         <v>0.002</v>
@@ -54069,7 +54069,7 @@
         <v>5000.0</v>
       </c>
       <c r="M149">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N149">
         <v>0.002</v>
@@ -54125,7 +54125,7 @@
         <v>5000.0</v>
       </c>
       <c r="M150">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N150">
         <v>0.002</v>
@@ -54181,7 +54181,7 @@
         <v>5000.0</v>
       </c>
       <c r="M151">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N151">
         <v>0.002</v>
@@ -54237,7 +54237,7 @@
         <v>5000.0</v>
       </c>
       <c r="M152">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N152">
         <v>0.002</v>
@@ -54293,7 +54293,7 @@
         <v>5000.0</v>
       </c>
       <c r="M153">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N153">
         <v>0.002</v>
@@ -54349,7 +54349,7 @@
         <v>5000.0</v>
       </c>
       <c r="M154">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N154">
         <v>0.002</v>
@@ -54405,7 +54405,7 @@
         <v>5000.0</v>
       </c>
       <c r="M155">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N155">
         <v>0.002</v>
@@ -54461,7 +54461,7 @@
         <v>5000.0</v>
       </c>
       <c r="M156">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N156">
         <v>0.002</v>
@@ -54517,7 +54517,7 @@
         <v>5000.0</v>
       </c>
       <c r="M157">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N157">
         <v>0.002</v>
@@ -54573,7 +54573,7 @@
         <v>5000.0</v>
       </c>
       <c r="M158">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N158">
         <v>0.002</v>
@@ -54629,7 +54629,7 @@
         <v>5000.0</v>
       </c>
       <c r="M159">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N159">
         <v>0.002</v>
@@ -54685,7 +54685,7 @@
         <v>5000.0</v>
       </c>
       <c r="M160">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N160">
         <v>0.002</v>
@@ -54741,7 +54741,7 @@
         <v>5000.0</v>
       </c>
       <c r="M161">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N161">
         <v>0.002</v>
@@ -54797,7 +54797,7 @@
         <v>5000.0</v>
       </c>
       <c r="M162">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N162">
         <v>0.002</v>
@@ -54853,7 +54853,7 @@
         <v>5000.0</v>
       </c>
       <c r="M163">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N163">
         <v>0.002</v>
@@ -54909,7 +54909,7 @@
         <v>5000.0</v>
       </c>
       <c r="M164">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N164">
         <v>0.002</v>
@@ -54965,7 +54965,7 @@
         <v>5000.0</v>
       </c>
       <c r="M165">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N165">
         <v>0.002</v>
@@ -55021,7 +55021,7 @@
         <v>5000.0</v>
       </c>
       <c r="M166">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N166">
         <v>0.002</v>
@@ -55077,7 +55077,7 @@
         <v>5000.0</v>
       </c>
       <c r="M167">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N167">
         <v>0.002</v>
@@ -55133,7 +55133,7 @@
         <v>5000.0</v>
       </c>
       <c r="M168">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N168">
         <v>0.002</v>
@@ -55189,7 +55189,7 @@
         <v>5000.0</v>
       </c>
       <c r="M169">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N169">
         <v>0.002</v>
@@ -55245,7 +55245,7 @@
         <v>5000.0</v>
       </c>
       <c r="M170">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N170">
         <v>0.002</v>
@@ -55301,7 +55301,7 @@
         <v>5000.0</v>
       </c>
       <c r="M171">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N171">
         <v>0.002</v>
@@ -55357,7 +55357,7 @@
         <v>5000.0</v>
       </c>
       <c r="M172">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N172">
         <v>0.002</v>
@@ -55413,7 +55413,7 @@
         <v>5000.0</v>
       </c>
       <c r="M173">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N173">
         <v>0.002</v>
@@ -55469,7 +55469,7 @@
         <v>5000.0</v>
       </c>
       <c r="M174">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N174">
         <v>0.002</v>
@@ -55525,7 +55525,7 @@
         <v>5000.0</v>
       </c>
       <c r="M175">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N175">
         <v>0.002</v>
@@ -55581,7 +55581,7 @@
         <v>5000.0</v>
       </c>
       <c r="M176">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N176">
         <v>0.002</v>
@@ -55637,7 +55637,7 @@
         <v>5000.0</v>
       </c>
       <c r="M177">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N177">
         <v>0.002</v>
@@ -55693,7 +55693,7 @@
         <v>5000.0</v>
       </c>
       <c r="M178">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N178">
         <v>0.002</v>
@@ -55749,7 +55749,7 @@
         <v>5000.0</v>
       </c>
       <c r="M179">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N179">
         <v>0.002</v>
@@ -55805,7 +55805,7 @@
         <v>5000.0</v>
       </c>
       <c r="M180">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N180">
         <v>0.002</v>
@@ -55861,7 +55861,7 @@
         <v>5000.0</v>
       </c>
       <c r="M181">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N181">
         <v>0.002</v>
@@ -55917,7 +55917,7 @@
         <v>5000.0</v>
       </c>
       <c r="M182">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N182">
         <v>0.002</v>
@@ -55973,7 +55973,7 @@
         <v>5000.0</v>
       </c>
       <c r="M183">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N183">
         <v>0.002</v>
@@ -56029,7 +56029,7 @@
         <v>5000.0</v>
       </c>
       <c r="M184">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N184">
         <v>0.002</v>
@@ -56085,7 +56085,7 @@
         <v>5000.0</v>
       </c>
       <c r="M185">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N185">
         <v>0.002</v>
@@ -56141,7 +56141,7 @@
         <v>5000.0</v>
       </c>
       <c r="M186">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N186">
         <v>0.002</v>
@@ -56197,7 +56197,7 @@
         <v>5000.0</v>
       </c>
       <c r="M187">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N187">
         <v>0.002</v>
@@ -56253,7 +56253,7 @@
         <v>5000.0</v>
       </c>
       <c r="M188">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N188">
         <v>0.002</v>
@@ -56309,7 +56309,7 @@
         <v>5000.0</v>
       </c>
       <c r="M189">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N189">
         <v>0.002</v>
@@ -56365,7 +56365,7 @@
         <v>5000.0</v>
       </c>
       <c r="M190">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N190">
         <v>0.002</v>
@@ -56421,7 +56421,7 @@
         <v>5000.0</v>
       </c>
       <c r="M191">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N191">
         <v>0.002</v>
@@ -56477,7 +56477,7 @@
         <v>5000.0</v>
       </c>
       <c r="M192">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N192">
         <v>0.002</v>
@@ -56533,7 +56533,7 @@
         <v>5000.0</v>
       </c>
       <c r="M193">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N193">
         <v>0.002</v>
@@ -56589,7 +56589,7 @@
         <v>5000.0</v>
       </c>
       <c r="M194">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N194">
         <v>0.002</v>
@@ -56645,7 +56645,7 @@
         <v>5000.0</v>
       </c>
       <c r="M195">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N195">
         <v>0.002</v>
@@ -56701,7 +56701,7 @@
         <v>5000.0</v>
       </c>
       <c r="M196">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N196">
         <v>0.002</v>
@@ -56757,7 +56757,7 @@
         <v>5000.0</v>
       </c>
       <c r="M197">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N197">
         <v>0.002</v>
@@ -56813,7 +56813,7 @@
         <v>5000.0</v>
       </c>
       <c r="M198">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N198">
         <v>0.002</v>
@@ -56869,7 +56869,7 @@
         <v>5000.0</v>
       </c>
       <c r="M199">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N199">
         <v>0.002</v>
@@ -56925,7 +56925,7 @@
         <v>5000.0</v>
       </c>
       <c r="M200">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N200">
         <v>0.002</v>
@@ -56981,7 +56981,7 @@
         <v>5000.0</v>
       </c>
       <c r="M201">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N201">
         <v>0.002</v>
@@ -57037,7 +57037,7 @@
         <v>5000.0</v>
       </c>
       <c r="M202">
-        <v>2.5129957834087554e-8</v>
+        <v>2.512995783408755e-8</v>
       </c>
       <c r="N202">
         <v>0.002</v>
